--- a/pred_ohlcv/54/2019-10-19 RNT ohlcv.xlsx
+++ b/pred_ohlcv/54/2019-10-19 RNT ohlcv.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H272"/>
+  <dimension ref="A1:I252"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,7 +399,12 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>fluc_close</t>
+          <t>low_check</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>high_check</t>
         </is>
       </c>
     </row>
@@ -408,24 +413,27 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>12.5</v>
+        <v>12.7</v>
       </c>
       <c r="C2" t="n">
-        <v>12.5</v>
+        <v>12.4</v>
       </c>
       <c r="D2" t="n">
-        <v>12.5</v>
+        <v>12.7</v>
       </c>
       <c r="E2" t="n">
-        <v>12.5</v>
+        <v>12.3</v>
       </c>
       <c r="F2" t="n">
-        <v>22004.899</v>
+        <v>147516.0611</v>
       </c>
       <c r="G2" t="n">
-        <v>12.38666666666665</v>
+        <v>12.38333333333332</v>
       </c>
       <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -446,12 +454,15 @@
         <v>12.5</v>
       </c>
       <c r="F3" t="n">
-        <v>26630.08</v>
+        <v>22004.899</v>
       </c>
       <c r="G3" t="n">
         <v>12.38666666666665</v>
       </c>
       <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -472,12 +483,15 @@
         <v>12.5</v>
       </c>
       <c r="F4" t="n">
-        <v>2691.52</v>
+        <v>26630.08</v>
       </c>
       <c r="G4" t="n">
-        <v>12.38833333333332</v>
+        <v>12.38666666666665</v>
       </c>
       <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -489,21 +503,24 @@
         <v>12.5</v>
       </c>
       <c r="C5" t="n">
-        <v>12.8</v>
+        <v>12.5</v>
       </c>
       <c r="D5" t="n">
-        <v>12.8</v>
+        <v>12.5</v>
       </c>
       <c r="E5" t="n">
         <v>12.5</v>
       </c>
       <c r="F5" t="n">
-        <v>51</v>
+        <v>2691.52</v>
       </c>
       <c r="G5" t="n">
-        <v>12.39666666666665</v>
+        <v>12.38833333333332</v>
       </c>
       <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -515,21 +532,24 @@
         <v>12.5</v>
       </c>
       <c r="C6" t="n">
-        <v>12.5</v>
+        <v>12.8</v>
       </c>
       <c r="D6" t="n">
-        <v>12.5</v>
+        <v>12.8</v>
       </c>
       <c r="E6" t="n">
         <v>12.5</v>
       </c>
       <c r="F6" t="n">
-        <v>3216.29</v>
+        <v>51</v>
       </c>
       <c r="G6" t="n">
-        <v>12.39999999999998</v>
+        <v>12.39666666666665</v>
       </c>
       <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -538,24 +558,27 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>12.8</v>
+        <v>12.5</v>
       </c>
       <c r="C7" t="n">
-        <v>12.9</v>
+        <v>12.5</v>
       </c>
       <c r="D7" t="n">
-        <v>12.9</v>
+        <v>12.5</v>
       </c>
       <c r="E7" t="n">
-        <v>12.8</v>
+        <v>12.5</v>
       </c>
       <c r="F7" t="n">
-        <v>203793.3273</v>
+        <v>3216.29</v>
       </c>
       <c r="G7" t="n">
-        <v>12.40999999999998</v>
+        <v>12.39999999999998</v>
       </c>
       <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -564,24 +587,27 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>13</v>
+        <v>12.8</v>
       </c>
       <c r="C8" t="n">
-        <v>13</v>
+        <v>12.9</v>
       </c>
       <c r="D8" t="n">
-        <v>13</v>
+        <v>12.9</v>
       </c>
       <c r="E8" t="n">
-        <v>13</v>
+        <v>12.8</v>
       </c>
       <c r="F8" t="n">
-        <v>3192.5</v>
+        <v>203793.3273</v>
       </c>
       <c r="G8" t="n">
-        <v>12.41999999999998</v>
+        <v>12.40999999999998</v>
       </c>
       <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
         <v>0</v>
       </c>
     </row>
@@ -596,18 +622,21 @@
         <v>13</v>
       </c>
       <c r="D9" t="n">
-        <v>13.2</v>
+        <v>13</v>
       </c>
       <c r="E9" t="n">
         <v>13</v>
       </c>
       <c r="F9" t="n">
-        <v>74962.91711969697</v>
+        <v>3192.5</v>
       </c>
       <c r="G9" t="n">
-        <v>12.43333333333332</v>
+        <v>12.41999999999998</v>
       </c>
       <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -622,18 +651,21 @@
         <v>13</v>
       </c>
       <c r="D10" t="n">
-        <v>13</v>
+        <v>13.2</v>
       </c>
       <c r="E10" t="n">
         <v>13</v>
       </c>
       <c r="F10" t="n">
-        <v>31555.0425</v>
+        <v>74962.91711969697</v>
       </c>
       <c r="G10" t="n">
-        <v>12.44666666666665</v>
+        <v>12.43333333333332</v>
       </c>
       <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
         <v>0</v>
       </c>
     </row>
@@ -654,12 +686,15 @@
         <v>13</v>
       </c>
       <c r="F11" t="n">
-        <v>14703.8251</v>
+        <v>31555.0425</v>
       </c>
       <c r="G11" t="n">
-        <v>12.45999999999998</v>
+        <v>12.44666666666665</v>
       </c>
       <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
         <v>0</v>
       </c>
     </row>
@@ -671,21 +706,24 @@
         <v>13</v>
       </c>
       <c r="C12" t="n">
-        <v>12.9</v>
+        <v>13</v>
       </c>
       <c r="D12" t="n">
         <v>13</v>
       </c>
       <c r="E12" t="n">
-        <v>12.9</v>
+        <v>13</v>
       </c>
       <c r="F12" t="n">
-        <v>123029.8431</v>
+        <v>14703.8251</v>
       </c>
       <c r="G12" t="n">
-        <v>12.47166666666665</v>
+        <v>12.45999999999998</v>
       </c>
       <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
         <v>0</v>
       </c>
     </row>
@@ -694,24 +732,27 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>12.9</v>
+        <v>13</v>
       </c>
       <c r="C13" t="n">
         <v>12.9</v>
       </c>
       <c r="D13" t="n">
-        <v>12.9</v>
+        <v>13</v>
       </c>
       <c r="E13" t="n">
         <v>12.9</v>
       </c>
       <c r="F13" t="n">
-        <v>18310</v>
+        <v>123029.8431</v>
       </c>
       <c r="G13" t="n">
-        <v>12.48333333333331</v>
+        <v>12.47166666666665</v>
       </c>
       <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
         <v>0</v>
       </c>
     </row>
@@ -732,12 +773,15 @@
         <v>12.9</v>
       </c>
       <c r="F14" t="n">
-        <v>20733.5107</v>
+        <v>18310</v>
       </c>
       <c r="G14" t="n">
-        <v>12.49499999999998</v>
+        <v>12.48333333333331</v>
       </c>
       <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
         <v>0</v>
       </c>
     </row>
@@ -758,12 +802,15 @@
         <v>12.9</v>
       </c>
       <c r="F15" t="n">
-        <v>7611.1404</v>
+        <v>20733.5107</v>
       </c>
       <c r="G15" t="n">
-        <v>12.50666666666664</v>
+        <v>12.49499999999998</v>
       </c>
       <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
         <v>0</v>
       </c>
     </row>
@@ -772,24 +819,27 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>12.8</v>
+        <v>12.9</v>
       </c>
       <c r="C16" t="n">
-        <v>12.8</v>
+        <v>12.9</v>
       </c>
       <c r="D16" t="n">
-        <v>12.8</v>
+        <v>12.9</v>
       </c>
       <c r="E16" t="n">
-        <v>12.8</v>
+        <v>12.9</v>
       </c>
       <c r="F16" t="n">
-        <v>51186.13</v>
+        <v>7611.1404</v>
       </c>
       <c r="G16" t="n">
-        <v>12.51499999999998</v>
+        <v>12.50666666666664</v>
       </c>
       <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
         <v>0</v>
       </c>
     </row>
@@ -798,24 +848,27 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>12.7</v>
+        <v>12.8</v>
       </c>
       <c r="C17" t="n">
-        <v>12.7</v>
+        <v>12.8</v>
       </c>
       <c r="D17" t="n">
-        <v>12.7</v>
+        <v>12.8</v>
       </c>
       <c r="E17" t="n">
-        <v>12.7</v>
+        <v>12.8</v>
       </c>
       <c r="F17" t="n">
-        <v>45061.2773</v>
+        <v>51186.13</v>
       </c>
       <c r="G17" t="n">
-        <v>12.52333333333331</v>
+        <v>12.51499999999998</v>
       </c>
       <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
         <v>0</v>
       </c>
     </row>
@@ -824,24 +877,27 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>12.8</v>
+        <v>12.7</v>
       </c>
       <c r="C18" t="n">
-        <v>12.8</v>
+        <v>12.7</v>
       </c>
       <c r="D18" t="n">
-        <v>12.8</v>
+        <v>12.7</v>
       </c>
       <c r="E18" t="n">
-        <v>12.8</v>
+        <v>12.7</v>
       </c>
       <c r="F18" t="n">
-        <v>12</v>
+        <v>45061.2773</v>
       </c>
       <c r="G18" t="n">
-        <v>12.53166666666664</v>
+        <v>12.52333333333331</v>
       </c>
       <c r="H18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" t="n">
         <v>0</v>
       </c>
     </row>
@@ -850,24 +906,27 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>12.7</v>
+        <v>12.8</v>
       </c>
       <c r="C19" t="n">
-        <v>12.7</v>
+        <v>12.8</v>
       </c>
       <c r="D19" t="n">
-        <v>12.7</v>
+        <v>12.8</v>
       </c>
       <c r="E19" t="n">
-        <v>12.7</v>
+        <v>12.8</v>
       </c>
       <c r="F19" t="n">
-        <v>50000</v>
+        <v>12</v>
       </c>
       <c r="G19" t="n">
-        <v>12.53999999999998</v>
+        <v>12.53166666666664</v>
       </c>
       <c r="H19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
         <v>0</v>
       </c>
     </row>
@@ -879,21 +938,24 @@
         <v>12.7</v>
       </c>
       <c r="C20" t="n">
-        <v>12.6</v>
+        <v>12.7</v>
       </c>
       <c r="D20" t="n">
         <v>12.7</v>
       </c>
       <c r="E20" t="n">
-        <v>12.6</v>
+        <v>12.7</v>
       </c>
       <c r="F20" t="n">
-        <v>5000</v>
+        <v>50000</v>
       </c>
       <c r="G20" t="n">
-        <v>12.54666666666664</v>
+        <v>12.53999999999998</v>
       </c>
       <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
         <v>0</v>
       </c>
     </row>
@@ -902,24 +964,27 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>12.8</v>
+        <v>12.7</v>
       </c>
       <c r="C21" t="n">
-        <v>12.8</v>
+        <v>12.6</v>
       </c>
       <c r="D21" t="n">
-        <v>12.8</v>
+        <v>12.7</v>
       </c>
       <c r="E21" t="n">
-        <v>12.8</v>
+        <v>12.6</v>
       </c>
       <c r="F21" t="n">
-        <v>7366.79</v>
+        <v>5000</v>
       </c>
       <c r="G21" t="n">
-        <v>12.55666666666664</v>
+        <v>12.54666666666664</v>
       </c>
       <c r="H21" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" t="n">
         <v>0</v>
       </c>
     </row>
@@ -931,21 +996,24 @@
         <v>12.8</v>
       </c>
       <c r="C22" t="n">
-        <v>13</v>
+        <v>12.8</v>
       </c>
       <c r="D22" t="n">
-        <v>13</v>
+        <v>12.8</v>
       </c>
       <c r="E22" t="n">
         <v>12.8</v>
       </c>
       <c r="F22" t="n">
-        <v>6000</v>
+        <v>7366.79</v>
       </c>
       <c r="G22" t="n">
-        <v>12.56833333333331</v>
+        <v>12.55666666666664</v>
       </c>
       <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
         <v>0</v>
       </c>
     </row>
@@ -954,7 +1022,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>12.9</v>
+        <v>12.8</v>
       </c>
       <c r="C23" t="n">
         <v>13</v>
@@ -966,12 +1034,15 @@
         <v>12.8</v>
       </c>
       <c r="F23" t="n">
-        <v>594531.5437</v>
+        <v>6000</v>
       </c>
       <c r="G23" t="n">
-        <v>12.57833333333331</v>
+        <v>12.56833333333331</v>
       </c>
       <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
         <v>0</v>
       </c>
     </row>
@@ -980,7 +1051,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>13</v>
+        <v>12.9</v>
       </c>
       <c r="C24" t="n">
         <v>13</v>
@@ -989,15 +1060,18 @@
         <v>13</v>
       </c>
       <c r="E24" t="n">
-        <v>13</v>
+        <v>12.8</v>
       </c>
       <c r="F24" t="n">
-        <v>31328.0501</v>
+        <v>594531.5437</v>
       </c>
       <c r="G24" t="n">
-        <v>12.58666666666664</v>
+        <v>12.57833333333331</v>
       </c>
       <c r="H24" t="n">
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1018,12 +1092,15 @@
         <v>13</v>
       </c>
       <c r="F25" t="n">
-        <v>2647.09</v>
+        <v>31328.0501</v>
       </c>
       <c r="G25" t="n">
-        <v>12.59666666666664</v>
+        <v>12.58666666666664</v>
       </c>
       <c r="H25" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1032,24 +1109,27 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>12.9</v>
+        <v>13</v>
       </c>
       <c r="C26" t="n">
-        <v>12.8</v>
+        <v>13</v>
       </c>
       <c r="D26" t="n">
-        <v>12.9</v>
+        <v>13</v>
       </c>
       <c r="E26" t="n">
-        <v>12.8</v>
+        <v>13</v>
       </c>
       <c r="F26" t="n">
-        <v>53535.9048</v>
+        <v>2647.09</v>
       </c>
       <c r="G26" t="n">
-        <v>12.60166666666664</v>
+        <v>12.59666666666664</v>
       </c>
       <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1058,24 +1138,27 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>12.8</v>
+        <v>12.9</v>
       </c>
       <c r="C27" t="n">
         <v>12.8</v>
       </c>
       <c r="D27" t="n">
-        <v>12.8</v>
+        <v>12.9</v>
       </c>
       <c r="E27" t="n">
         <v>12.8</v>
       </c>
       <c r="F27" t="n">
-        <v>42829.2265</v>
+        <v>53535.9048</v>
       </c>
       <c r="G27" t="n">
-        <v>12.60666666666664</v>
+        <v>12.60166666666664</v>
       </c>
       <c r="H27" t="n">
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1096,12 +1179,15 @@
         <v>12.8</v>
       </c>
       <c r="F28" t="n">
-        <v>47334.6741</v>
+        <v>42829.2265</v>
       </c>
       <c r="G28" t="n">
-        <v>12.61166666666664</v>
+        <v>12.60666666666664</v>
       </c>
       <c r="H28" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1122,12 +1208,15 @@
         <v>12.8</v>
       </c>
       <c r="F29" t="n">
-        <v>36660.5059</v>
+        <v>47334.6741</v>
       </c>
       <c r="G29" t="n">
-        <v>12.61499999999997</v>
+        <v>12.61166666666664</v>
       </c>
       <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1148,12 +1237,15 @@
         <v>12.8</v>
       </c>
       <c r="F30" t="n">
-        <v>655.9628</v>
+        <v>36660.5059</v>
       </c>
       <c r="G30" t="n">
-        <v>12.61999999999997</v>
+        <v>12.61499999999997</v>
       </c>
       <c r="H30" t="n">
+        <v>0</v>
+      </c>
+      <c r="I30" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1174,12 +1266,15 @@
         <v>12.8</v>
       </c>
       <c r="F31" t="n">
-        <v>14604.2757</v>
+        <v>655.9628</v>
       </c>
       <c r="G31" t="n">
-        <v>12.62499999999997</v>
+        <v>12.61999999999997</v>
       </c>
       <c r="H31" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1200,12 +1295,15 @@
         <v>12.8</v>
       </c>
       <c r="F32" t="n">
-        <v>21791.1093</v>
+        <v>14604.2757</v>
       </c>
       <c r="G32" t="n">
-        <v>12.62999999999997</v>
+        <v>12.62499999999997</v>
       </c>
       <c r="H32" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1217,21 +1315,24 @@
         <v>12.8</v>
       </c>
       <c r="C33" t="n">
-        <v>13</v>
+        <v>12.8</v>
       </c>
       <c r="D33" t="n">
-        <v>13</v>
+        <v>12.8</v>
       </c>
       <c r="E33" t="n">
         <v>12.8</v>
       </c>
       <c r="F33" t="n">
-        <v>15549.4711</v>
+        <v>21791.1093</v>
       </c>
       <c r="G33" t="n">
-        <v>12.6383333333333</v>
+        <v>12.62999999999997</v>
       </c>
       <c r="H33" t="n">
+        <v>0</v>
+      </c>
+      <c r="I33" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1243,21 +1344,24 @@
         <v>12.8</v>
       </c>
       <c r="C34" t="n">
-        <v>12.8</v>
+        <v>13</v>
       </c>
       <c r="D34" t="n">
-        <v>12.8</v>
+        <v>13</v>
       </c>
       <c r="E34" t="n">
         <v>12.8</v>
       </c>
       <c r="F34" t="n">
-        <v>86266.9745</v>
+        <v>15549.4711</v>
       </c>
       <c r="G34" t="n">
-        <v>12.6433333333333</v>
+        <v>12.6383333333333</v>
       </c>
       <c r="H34" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1266,24 +1370,27 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>13</v>
+        <v>12.8</v>
       </c>
       <c r="C35" t="n">
-        <v>13</v>
+        <v>12.8</v>
       </c>
       <c r="D35" t="n">
-        <v>13</v>
+        <v>12.8</v>
       </c>
       <c r="E35" t="n">
-        <v>13</v>
+        <v>12.8</v>
       </c>
       <c r="F35" t="n">
-        <v>11.8461</v>
+        <v>86266.9745</v>
       </c>
       <c r="G35" t="n">
-        <v>12.6533333333333</v>
+        <v>12.6433333333333</v>
       </c>
       <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1292,24 +1399,27 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>12.8</v>
+        <v>13</v>
       </c>
       <c r="C36" t="n">
-        <v>12.8</v>
+        <v>13</v>
       </c>
       <c r="D36" t="n">
-        <v>12.8</v>
+        <v>13</v>
       </c>
       <c r="E36" t="n">
-        <v>12.8</v>
+        <v>13</v>
       </c>
       <c r="F36" t="n">
-        <v>70961.43180000001</v>
+        <v>11.8461</v>
       </c>
       <c r="G36" t="n">
-        <v>12.6583333333333</v>
+        <v>12.6533333333333</v>
       </c>
       <c r="H36" t="n">
+        <v>0</v>
+      </c>
+      <c r="I36" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1318,24 +1428,27 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>13</v>
+        <v>12.8</v>
       </c>
       <c r="C37" t="n">
-        <v>13</v>
+        <v>12.8</v>
       </c>
       <c r="D37" t="n">
-        <v>13</v>
+        <v>12.8</v>
       </c>
       <c r="E37" t="n">
-        <v>13</v>
+        <v>12.8</v>
       </c>
       <c r="F37" t="n">
-        <v>12</v>
+        <v>70961.43180000001</v>
       </c>
       <c r="G37" t="n">
-        <v>12.6683333333333</v>
+        <v>12.6583333333333</v>
       </c>
       <c r="H37" t="n">
+        <v>0</v>
+      </c>
+      <c r="I37" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1344,24 +1457,27 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>12.9</v>
+        <v>13</v>
       </c>
       <c r="C38" t="n">
-        <v>12.8</v>
+        <v>13</v>
       </c>
       <c r="D38" t="n">
-        <v>12.9</v>
+        <v>13</v>
       </c>
       <c r="E38" t="n">
-        <v>12.8</v>
+        <v>13</v>
       </c>
       <c r="F38" t="n">
-        <v>132169.8246</v>
+        <v>12</v>
       </c>
       <c r="G38" t="n">
-        <v>12.67499999999997</v>
+        <v>12.6683333333333</v>
       </c>
       <c r="H38" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1370,24 +1486,27 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>12.8</v>
+        <v>12.9</v>
       </c>
       <c r="C39" t="n">
         <v>12.8</v>
       </c>
       <c r="D39" t="n">
-        <v>12.8</v>
+        <v>12.9</v>
       </c>
       <c r="E39" t="n">
         <v>12.8</v>
       </c>
       <c r="F39" t="n">
-        <v>20000</v>
+        <v>132169.8246</v>
       </c>
       <c r="G39" t="n">
-        <v>12.6733333333333</v>
+        <v>12.67499999999997</v>
       </c>
       <c r="H39" t="n">
+        <v>0</v>
+      </c>
+      <c r="I39" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1399,21 +1518,24 @@
         <v>12.8</v>
       </c>
       <c r="C40" t="n">
-        <v>12.6</v>
+        <v>12.8</v>
       </c>
       <c r="D40" t="n">
         <v>12.8</v>
       </c>
       <c r="E40" t="n">
-        <v>12.6</v>
+        <v>12.8</v>
       </c>
       <c r="F40" t="n">
-        <v>123503.8715</v>
+        <v>20000</v>
       </c>
       <c r="G40" t="n">
-        <v>12.67499999999997</v>
+        <v>12.6733333333333</v>
       </c>
       <c r="H40" t="n">
+        <v>0</v>
+      </c>
+      <c r="I40" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1422,24 +1544,27 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>12.5</v>
+        <v>12.8</v>
       </c>
       <c r="C41" t="n">
         <v>12.6</v>
       </c>
       <c r="D41" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="E41" t="n">
         <v>12.6</v>
       </c>
-      <c r="E41" t="n">
-        <v>12.5</v>
-      </c>
       <c r="F41" t="n">
-        <v>5381.56</v>
+        <v>123503.8715</v>
       </c>
       <c r="G41" t="n">
-        <v>12.67666666666664</v>
+        <v>12.67499999999997</v>
       </c>
       <c r="H41" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1451,21 +1576,24 @@
         <v>12.5</v>
       </c>
       <c r="C42" t="n">
-        <v>12.5</v>
+        <v>12.6</v>
       </c>
       <c r="D42" t="n">
-        <v>12.5</v>
+        <v>12.6</v>
       </c>
       <c r="E42" t="n">
         <v>12.5</v>
       </c>
       <c r="F42" t="n">
-        <v>2911.52</v>
+        <v>5381.56</v>
       </c>
       <c r="G42" t="n">
         <v>12.67666666666664</v>
       </c>
       <c r="H42" t="n">
+        <v>0</v>
+      </c>
+      <c r="I42" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1474,24 +1602,27 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>12.6</v>
+        <v>12.5</v>
       </c>
       <c r="C43" t="n">
-        <v>12.7</v>
+        <v>12.5</v>
       </c>
       <c r="D43" t="n">
-        <v>12.7</v>
+        <v>12.5</v>
       </c>
       <c r="E43" t="n">
-        <v>12.6</v>
+        <v>12.5</v>
       </c>
       <c r="F43" t="n">
-        <v>7534.7497</v>
+        <v>2911.52</v>
       </c>
       <c r="G43" t="n">
-        <v>12.68166666666664</v>
+        <v>12.67666666666664</v>
       </c>
       <c r="H43" t="n">
+        <v>0</v>
+      </c>
+      <c r="I43" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1500,7 +1631,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>12.7</v>
+        <v>12.6</v>
       </c>
       <c r="C44" t="n">
         <v>12.7</v>
@@ -1509,15 +1640,18 @@
         <v>12.7</v>
       </c>
       <c r="E44" t="n">
-        <v>12.7</v>
+        <v>12.6</v>
       </c>
       <c r="F44" t="n">
-        <v>3480</v>
+        <v>7534.7497</v>
       </c>
       <c r="G44" t="n">
-        <v>12.68666666666664</v>
+        <v>12.68166666666664</v>
       </c>
       <c r="H44" t="n">
+        <v>0</v>
+      </c>
+      <c r="I44" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1529,21 +1663,24 @@
         <v>12.7</v>
       </c>
       <c r="C45" t="n">
-        <v>12.6</v>
+        <v>12.7</v>
       </c>
       <c r="D45" t="n">
         <v>12.7</v>
       </c>
       <c r="E45" t="n">
-        <v>12.6</v>
+        <v>12.7</v>
       </c>
       <c r="F45" t="n">
-        <v>4028.44</v>
+        <v>3480</v>
       </c>
       <c r="G45" t="n">
-        <v>12.69166666666664</v>
+        <v>12.68666666666664</v>
       </c>
       <c r="H45" t="n">
+        <v>0</v>
+      </c>
+      <c r="I45" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1552,24 +1689,27 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="C46" t="n">
         <v>12.6</v>
       </c>
-      <c r="C46" t="n">
-        <v>12.5</v>
-      </c>
       <c r="D46" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="E46" t="n">
         <v>12.6</v>
       </c>
-      <c r="E46" t="n">
-        <v>12.5</v>
-      </c>
       <c r="F46" t="n">
-        <v>153088.3466</v>
+        <v>4028.44</v>
       </c>
       <c r="G46" t="n">
         <v>12.69166666666664</v>
       </c>
       <c r="H46" t="n">
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1578,24 +1718,27 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>12.5</v>
+        <v>12.6</v>
       </c>
       <c r="C47" t="n">
         <v>12.5</v>
       </c>
       <c r="D47" t="n">
-        <v>12.5</v>
+        <v>12.6</v>
       </c>
       <c r="E47" t="n">
         <v>12.5</v>
       </c>
       <c r="F47" t="n">
-        <v>9380</v>
+        <v>153088.3466</v>
       </c>
       <c r="G47" t="n">
-        <v>12.69499999999997</v>
+        <v>12.69166666666664</v>
       </c>
       <c r="H47" t="n">
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1616,12 +1759,15 @@
         <v>12.5</v>
       </c>
       <c r="F48" t="n">
-        <v>12886.62</v>
+        <v>9380</v>
       </c>
       <c r="G48" t="n">
-        <v>12.69833333333331</v>
+        <v>12.69499999999997</v>
       </c>
       <c r="H48" t="n">
+        <v>0</v>
+      </c>
+      <c r="I48" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1633,21 +1779,24 @@
         <v>12.5</v>
       </c>
       <c r="C49" t="n">
-        <v>12.4</v>
+        <v>12.5</v>
       </c>
       <c r="D49" t="n">
         <v>12.5</v>
       </c>
       <c r="E49" t="n">
-        <v>12.4</v>
+        <v>12.5</v>
       </c>
       <c r="F49" t="n">
-        <v>40489.2315</v>
+        <v>12886.62</v>
       </c>
       <c r="G49" t="n">
-        <v>12.69999999999998</v>
+        <v>12.69833333333331</v>
       </c>
       <c r="H49" t="n">
+        <v>0</v>
+      </c>
+      <c r="I49" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1659,21 +1808,24 @@
         <v>12.5</v>
       </c>
       <c r="C50" t="n">
-        <v>12.5</v>
+        <v>12.4</v>
       </c>
       <c r="D50" t="n">
         <v>12.5</v>
       </c>
       <c r="E50" t="n">
-        <v>12.5</v>
+        <v>12.4</v>
       </c>
       <c r="F50" t="n">
-        <v>2640</v>
+        <v>40489.2315</v>
       </c>
       <c r="G50" t="n">
-        <v>12.70333333333331</v>
+        <v>12.69999999999998</v>
       </c>
       <c r="H50" t="n">
+        <v>0</v>
+      </c>
+      <c r="I50" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1682,24 +1834,27 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>12.6</v>
+        <v>12.5</v>
       </c>
       <c r="C51" t="n">
-        <v>12.6</v>
+        <v>12.5</v>
       </c>
       <c r="D51" t="n">
-        <v>12.6</v>
+        <v>12.5</v>
       </c>
       <c r="E51" t="n">
-        <v>12.6</v>
+        <v>12.5</v>
       </c>
       <c r="F51" t="n">
-        <v>11527.5396</v>
+        <v>2640</v>
       </c>
       <c r="G51" t="n">
-        <v>12.70833333333331</v>
+        <v>12.70333333333331</v>
       </c>
       <c r="H51" t="n">
+        <v>0</v>
+      </c>
+      <c r="I51" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1708,24 +1863,27 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>12.5</v>
+        <v>12.6</v>
       </c>
       <c r="C52" t="n">
-        <v>12.5</v>
+        <v>12.6</v>
       </c>
       <c r="D52" t="n">
-        <v>12.5</v>
+        <v>12.6</v>
       </c>
       <c r="E52" t="n">
-        <v>12.5</v>
+        <v>12.6</v>
       </c>
       <c r="F52" t="n">
-        <v>2640</v>
+        <v>11527.5396</v>
       </c>
       <c r="G52" t="n">
-        <v>12.70999999999998</v>
+        <v>12.70833333333331</v>
       </c>
       <c r="H52" t="n">
+        <v>0</v>
+      </c>
+      <c r="I52" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1746,12 +1904,15 @@
         <v>12.5</v>
       </c>
       <c r="F53" t="n">
-        <v>45286.0001</v>
+        <v>2640</v>
       </c>
       <c r="G53" t="n">
-        <v>12.71333333333331</v>
+        <v>12.70999999999998</v>
       </c>
       <c r="H53" t="n">
+        <v>0</v>
+      </c>
+      <c r="I53" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1772,12 +1933,15 @@
         <v>12.5</v>
       </c>
       <c r="F54" t="n">
-        <v>48136.5387</v>
+        <v>45286.0001</v>
       </c>
       <c r="G54" t="n">
-        <v>12.71499999999998</v>
+        <v>12.71333333333331</v>
       </c>
       <c r="H54" t="n">
+        <v>0</v>
+      </c>
+      <c r="I54" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1786,24 +1950,27 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>12.6</v>
+        <v>12.5</v>
       </c>
       <c r="C55" t="n">
-        <v>12.6</v>
+        <v>12.5</v>
       </c>
       <c r="D55" t="n">
-        <v>12.6</v>
+        <v>12.5</v>
       </c>
       <c r="E55" t="n">
-        <v>12.6</v>
+        <v>12.5</v>
       </c>
       <c r="F55" t="n">
-        <v>59194.9443</v>
+        <v>48136.5387</v>
       </c>
       <c r="G55" t="n">
-        <v>12.71999999999998</v>
+        <v>12.71499999999998</v>
       </c>
       <c r="H55" t="n">
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1812,24 +1979,27 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>12.7</v>
+        <v>12.6</v>
       </c>
       <c r="C56" t="n">
-        <v>12.7</v>
+        <v>12.6</v>
       </c>
       <c r="D56" t="n">
-        <v>12.7</v>
+        <v>12.6</v>
       </c>
       <c r="E56" t="n">
-        <v>12.7</v>
+        <v>12.6</v>
       </c>
       <c r="F56" t="n">
-        <v>56642.9921</v>
+        <v>59194.9443</v>
       </c>
       <c r="G56" t="n">
-        <v>12.72666666666665</v>
+        <v>12.71999999999998</v>
       </c>
       <c r="H56" t="n">
+        <v>0</v>
+      </c>
+      <c r="I56" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1841,21 +2011,24 @@
         <v>12.7</v>
       </c>
       <c r="C57" t="n">
-        <v>12.6</v>
+        <v>12.7</v>
       </c>
       <c r="D57" t="n">
         <v>12.7</v>
       </c>
       <c r="E57" t="n">
-        <v>12.6</v>
+        <v>12.7</v>
       </c>
       <c r="F57" t="n">
-        <v>18049.9546</v>
+        <v>56642.9921</v>
       </c>
       <c r="G57" t="n">
-        <v>12.73333333333331</v>
+        <v>12.72666666666665</v>
       </c>
       <c r="H57" t="n">
+        <v>0</v>
+      </c>
+      <c r="I57" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1864,24 +2037,27 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>12.6</v>
+        <v>12.7</v>
       </c>
       <c r="C58" t="n">
         <v>12.6</v>
       </c>
       <c r="D58" t="n">
-        <v>12.6</v>
+        <v>12.7</v>
       </c>
       <c r="E58" t="n">
         <v>12.6</v>
       </c>
       <c r="F58" t="n">
-        <v>18210</v>
+        <v>18049.9546</v>
       </c>
       <c r="G58" t="n">
-        <v>12.73499999999998</v>
+        <v>12.73333333333331</v>
       </c>
       <c r="H58" t="n">
+        <v>0</v>
+      </c>
+      <c r="I58" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1893,21 +2069,24 @@
         <v>12.6</v>
       </c>
       <c r="C59" t="n">
-        <v>12.5</v>
+        <v>12.6</v>
       </c>
       <c r="D59" t="n">
         <v>12.6</v>
       </c>
       <c r="E59" t="n">
-        <v>12.5</v>
+        <v>12.6</v>
       </c>
       <c r="F59" t="n">
-        <v>22962.7376</v>
+        <v>18210</v>
       </c>
       <c r="G59" t="n">
-        <v>12.72833333333332</v>
+        <v>12.73499999999998</v>
       </c>
       <c r="H59" t="n">
+        <v>0</v>
+      </c>
+      <c r="I59" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1919,21 +2098,24 @@
         <v>12.6</v>
       </c>
       <c r="C60" t="n">
-        <v>12.9</v>
+        <v>12.5</v>
       </c>
       <c r="D60" t="n">
-        <v>12.9</v>
+        <v>12.6</v>
       </c>
       <c r="E60" t="n">
         <v>12.5</v>
       </c>
       <c r="F60" t="n">
-        <v>19209.4733</v>
+        <v>22962.7376</v>
       </c>
       <c r="G60" t="n">
-        <v>12.73333333333331</v>
+        <v>12.72833333333332</v>
       </c>
       <c r="H60" t="n">
+        <v>0</v>
+      </c>
+      <c r="I60" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1945,21 +2127,24 @@
         <v>12.6</v>
       </c>
       <c r="C61" t="n">
-        <v>12.5</v>
+        <v>12.9</v>
       </c>
       <c r="D61" t="n">
-        <v>12.6</v>
+        <v>12.9</v>
       </c>
       <c r="E61" t="n">
         <v>12.5</v>
       </c>
       <c r="F61" t="n">
-        <v>4981.49287936508</v>
+        <v>19209.4733</v>
       </c>
       <c r="G61" t="n">
-        <v>12.73499999999998</v>
+        <v>12.73333333333331</v>
       </c>
       <c r="H61" t="n">
+        <v>0</v>
+      </c>
+      <c r="I61" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1968,24 +2153,27 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>12.5</v>
+        <v>12.6</v>
       </c>
       <c r="C62" t="n">
-        <v>12.4</v>
+        <v>12.5</v>
       </c>
       <c r="D62" t="n">
-        <v>12.5</v>
+        <v>12.6</v>
       </c>
       <c r="E62" t="n">
-        <v>12.4</v>
+        <v>12.5</v>
       </c>
       <c r="F62" t="n">
-        <v>115075.1631</v>
+        <v>4981.49287936508</v>
       </c>
       <c r="G62" t="n">
-        <v>12.73333333333331</v>
+        <v>12.73499999999998</v>
       </c>
       <c r="H62" t="n">
+        <v>0</v>
+      </c>
+      <c r="I62" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1994,24 +2182,27 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>12.4</v>
+        <v>12.5</v>
       </c>
       <c r="C63" t="n">
         <v>12.4</v>
       </c>
       <c r="D63" t="n">
-        <v>12.4</v>
+        <v>12.5</v>
       </c>
       <c r="E63" t="n">
         <v>12.4</v>
       </c>
       <c r="F63" t="n">
-        <v>7877.6222</v>
+        <v>115075.1631</v>
       </c>
       <c r="G63" t="n">
-        <v>12.73166666666665</v>
+        <v>12.73333333333331</v>
       </c>
       <c r="H63" t="n">
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2020,24 +2211,27 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>12.3</v>
+        <v>12.4</v>
       </c>
       <c r="C64" t="n">
-        <v>12.2</v>
+        <v>12.4</v>
       </c>
       <c r="D64" t="n">
-        <v>12.3</v>
+        <v>12.4</v>
       </c>
       <c r="E64" t="n">
-        <v>12.2</v>
+        <v>12.4</v>
       </c>
       <c r="F64" t="n">
-        <v>284384.3923</v>
+        <v>7877.6222</v>
       </c>
       <c r="G64" t="n">
-        <v>12.72666666666665</v>
+        <v>12.73166666666665</v>
       </c>
       <c r="H64" t="n">
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2046,24 +2240,27 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="C65" t="n">
         <v>12.2</v>
       </c>
-      <c r="C65" t="n">
-        <v>12.1</v>
-      </c>
       <c r="D65" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="E65" t="n">
         <v>12.2</v>
       </c>
-      <c r="E65" t="n">
-        <v>12.1</v>
-      </c>
       <c r="F65" t="n">
-        <v>33975.1401</v>
+        <v>284384.3923</v>
       </c>
       <c r="G65" t="n">
-        <v>12.71499999999998</v>
+        <v>12.72666666666665</v>
       </c>
       <c r="H65" t="n">
+        <v>0</v>
+      </c>
+      <c r="I65" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2072,24 +2269,27 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>12.3</v>
+        <v>12.2</v>
       </c>
       <c r="C66" t="n">
-        <v>12.3</v>
+        <v>12.1</v>
       </c>
       <c r="D66" t="n">
-        <v>12.3</v>
+        <v>12.2</v>
       </c>
       <c r="E66" t="n">
-        <v>12.3</v>
+        <v>12.1</v>
       </c>
       <c r="F66" t="n">
-        <v>1112.1027</v>
+        <v>33975.1401</v>
       </c>
       <c r="G66" t="n">
-        <v>12.71166666666665</v>
+        <v>12.71499999999998</v>
       </c>
       <c r="H66" t="n">
+        <v>0</v>
+      </c>
+      <c r="I66" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2098,24 +2298,27 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>12.4</v>
+        <v>12.3</v>
       </c>
       <c r="C67" t="n">
         <v>12.3</v>
       </c>
       <c r="D67" t="n">
-        <v>12.4</v>
+        <v>12.3</v>
       </c>
       <c r="E67" t="n">
         <v>12.3</v>
       </c>
       <c r="F67" t="n">
-        <v>119343.3896</v>
+        <v>1112.1027</v>
       </c>
       <c r="G67" t="n">
-        <v>12.70166666666665</v>
+        <v>12.71166666666665</v>
       </c>
       <c r="H67" t="n">
+        <v>0</v>
+      </c>
+      <c r="I67" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2124,24 +2327,27 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>12.3</v>
+        <v>12.4</v>
       </c>
       <c r="C68" t="n">
         <v>12.3</v>
       </c>
       <c r="D68" t="n">
-        <v>12.3</v>
+        <v>12.4</v>
       </c>
       <c r="E68" t="n">
         <v>12.3</v>
       </c>
       <c r="F68" t="n">
-        <v>59725</v>
+        <v>119343.3896</v>
       </c>
       <c r="G68" t="n">
-        <v>12.68999999999998</v>
+        <v>12.70166666666665</v>
       </c>
       <c r="H68" t="n">
+        <v>0</v>
+      </c>
+      <c r="I68" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2150,24 +2356,27 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>12.4</v>
+        <v>12.3</v>
       </c>
       <c r="C69" t="n">
-        <v>12.4</v>
+        <v>12.3</v>
       </c>
       <c r="D69" t="n">
-        <v>12.4</v>
+        <v>12.3</v>
       </c>
       <c r="E69" t="n">
-        <v>12.4</v>
+        <v>12.3</v>
       </c>
       <c r="F69" t="n">
-        <v>29591.6129</v>
+        <v>59725</v>
       </c>
       <c r="G69" t="n">
-        <v>12.67999999999998</v>
+        <v>12.68999999999998</v>
       </c>
       <c r="H69" t="n">
+        <v>0</v>
+      </c>
+      <c r="I69" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2176,24 +2385,27 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>12.5</v>
+        <v>12.4</v>
       </c>
       <c r="C70" t="n">
-        <v>12.5</v>
+        <v>12.4</v>
       </c>
       <c r="D70" t="n">
-        <v>12.5</v>
+        <v>12.4</v>
       </c>
       <c r="E70" t="n">
-        <v>12.5</v>
+        <v>12.4</v>
       </c>
       <c r="F70" t="n">
-        <v>25823.0322</v>
+        <v>29591.6129</v>
       </c>
       <c r="G70" t="n">
-        <v>12.67166666666665</v>
+        <v>12.67999999999998</v>
       </c>
       <c r="H70" t="n">
+        <v>0</v>
+      </c>
+      <c r="I70" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2214,12 +2426,15 @@
         <v>12.5</v>
       </c>
       <c r="F71" t="n">
-        <v>12060</v>
+        <v>25823.0322</v>
       </c>
       <c r="G71" t="n">
-        <v>12.66333333333331</v>
+        <v>12.67166666666665</v>
       </c>
       <c r="H71" t="n">
+        <v>0</v>
+      </c>
+      <c r="I71" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2228,24 +2443,27 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>12.4</v>
+        <v>12.5</v>
       </c>
       <c r="C72" t="n">
-        <v>12.4</v>
+        <v>12.5</v>
       </c>
       <c r="D72" t="n">
-        <v>12.4</v>
+        <v>12.5</v>
       </c>
       <c r="E72" t="n">
-        <v>12.4</v>
+        <v>12.5</v>
       </c>
       <c r="F72" t="n">
-        <v>5190</v>
+        <v>12060</v>
       </c>
       <c r="G72" t="n">
-        <v>12.65499999999998</v>
+        <v>12.66333333333331</v>
       </c>
       <c r="H72" t="n">
+        <v>0</v>
+      </c>
+      <c r="I72" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2266,12 +2484,15 @@
         <v>12.4</v>
       </c>
       <c r="F73" t="n">
-        <v>5060.04</v>
+        <v>5190</v>
       </c>
       <c r="G73" t="n">
-        <v>12.64666666666665</v>
+        <v>12.65499999999998</v>
       </c>
       <c r="H73" t="n">
+        <v>0</v>
+      </c>
+      <c r="I73" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2292,12 +2513,15 @@
         <v>12.4</v>
       </c>
       <c r="F74" t="n">
-        <v>2530</v>
+        <v>5060.04</v>
       </c>
       <c r="G74" t="n">
-        <v>12.63833333333331</v>
+        <v>12.64666666666665</v>
       </c>
       <c r="H74" t="n">
+        <v>1</v>
+      </c>
+      <c r="I74" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2306,24 +2530,27 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>12.5</v>
+        <v>12.4</v>
       </c>
       <c r="C75" t="n">
-        <v>12.5</v>
+        <v>12.4</v>
       </c>
       <c r="D75" t="n">
-        <v>12.5</v>
+        <v>12.4</v>
       </c>
       <c r="E75" t="n">
-        <v>12.5</v>
+        <v>12.4</v>
       </c>
       <c r="F75" t="n">
-        <v>100</v>
+        <v>2530</v>
       </c>
       <c r="G75" t="n">
-        <v>12.63166666666665</v>
+        <v>12.63833333333331</v>
       </c>
       <c r="H75" t="n">
+        <v>1</v>
+      </c>
+      <c r="I75" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2332,24 +2559,27 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>12.4</v>
+        <v>12.5</v>
       </c>
       <c r="C76" t="n">
-        <v>12.4</v>
+        <v>12.5</v>
       </c>
       <c r="D76" t="n">
-        <v>12.4</v>
+        <v>12.5</v>
       </c>
       <c r="E76" t="n">
-        <v>12.4</v>
+        <v>12.5</v>
       </c>
       <c r="F76" t="n">
-        <v>7690</v>
+        <v>100</v>
       </c>
       <c r="G76" t="n">
-        <v>12.62499999999998</v>
+        <v>12.63166666666665</v>
       </c>
       <c r="H76" t="n">
+        <v>1</v>
+      </c>
+      <c r="I76" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2370,12 +2600,15 @@
         <v>12.4</v>
       </c>
       <c r="F77" t="n">
-        <v>1076.7839</v>
+        <v>7690</v>
       </c>
       <c r="G77" t="n">
-        <v>12.61999999999998</v>
+        <v>12.62499999999998</v>
       </c>
       <c r="H77" t="n">
+        <v>0</v>
+      </c>
+      <c r="I77" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2384,24 +2617,27 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>12.5</v>
+        <v>12.4</v>
       </c>
       <c r="C78" t="n">
-        <v>12.5</v>
+        <v>12.4</v>
       </c>
       <c r="D78" t="n">
-        <v>12.5</v>
+        <v>12.4</v>
       </c>
       <c r="E78" t="n">
-        <v>12.5</v>
+        <v>12.4</v>
       </c>
       <c r="F78" t="n">
-        <v>12</v>
+        <v>1076.7839</v>
       </c>
       <c r="G78" t="n">
-        <v>12.61499999999998</v>
+        <v>12.61999999999998</v>
       </c>
       <c r="H78" t="n">
+        <v>0</v>
+      </c>
+      <c r="I78" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2422,12 +2658,15 @@
         <v>12.5</v>
       </c>
       <c r="F79" t="n">
-        <v>1956.7839</v>
+        <v>12</v>
       </c>
       <c r="G79" t="n">
-        <v>12.61166666666665</v>
+        <v>12.61499999999998</v>
       </c>
       <c r="H79" t="n">
+        <v>0</v>
+      </c>
+      <c r="I79" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2436,24 +2675,27 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>12.4</v>
+        <v>12.5</v>
       </c>
       <c r="C80" t="n">
-        <v>12.4</v>
+        <v>12.5</v>
       </c>
       <c r="D80" t="n">
-        <v>12.4</v>
+        <v>12.5</v>
       </c>
       <c r="E80" t="n">
-        <v>12.4</v>
+        <v>12.5</v>
       </c>
       <c r="F80" t="n">
-        <v>8315.4216</v>
+        <v>1956.7839</v>
       </c>
       <c r="G80" t="n">
-        <v>12.60833333333331</v>
+        <v>12.61166666666665</v>
       </c>
       <c r="H80" t="n">
+        <v>0</v>
+      </c>
+      <c r="I80" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2465,21 +2707,24 @@
         <v>12.4</v>
       </c>
       <c r="C81" t="n">
-        <v>12.3</v>
+        <v>12.4</v>
       </c>
       <c r="D81" t="n">
         <v>12.4</v>
       </c>
       <c r="E81" t="n">
-        <v>12.3</v>
+        <v>12.4</v>
       </c>
       <c r="F81" t="n">
-        <v>14999.4074</v>
+        <v>8315.4216</v>
       </c>
       <c r="G81" t="n">
-        <v>12.59999999999998</v>
+        <v>12.60833333333331</v>
       </c>
       <c r="H81" t="n">
+        <v>0</v>
+      </c>
+      <c r="I81" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2488,24 +2733,27 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>12.5</v>
+        <v>12.4</v>
       </c>
       <c r="C82" t="n">
-        <v>12.5</v>
+        <v>12.3</v>
       </c>
       <c r="D82" t="n">
-        <v>12.5</v>
+        <v>12.4</v>
       </c>
       <c r="E82" t="n">
-        <v>12.5</v>
+        <v>12.3</v>
       </c>
       <c r="F82" t="n">
-        <v>825.2</v>
+        <v>14999.4074</v>
       </c>
       <c r="G82" t="n">
-        <v>12.59166666666665</v>
+        <v>12.59999999999998</v>
       </c>
       <c r="H82" t="n">
+        <v>0</v>
+      </c>
+      <c r="I82" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2526,12 +2774,15 @@
         <v>12.5</v>
       </c>
       <c r="F83" t="n">
-        <v>80</v>
+        <v>825.2</v>
       </c>
       <c r="G83" t="n">
-        <v>12.58333333333331</v>
+        <v>12.59166666666665</v>
       </c>
       <c r="H83" t="n">
+        <v>0</v>
+      </c>
+      <c r="I83" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2540,24 +2791,27 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>12.3</v>
+        <v>12.5</v>
       </c>
       <c r="C84" t="n">
-        <v>12.3</v>
+        <v>12.5</v>
       </c>
       <c r="D84" t="n">
-        <v>12.3</v>
+        <v>12.5</v>
       </c>
       <c r="E84" t="n">
-        <v>12.3</v>
+        <v>12.5</v>
       </c>
       <c r="F84" t="n">
-        <v>22000</v>
+        <v>80</v>
       </c>
       <c r="G84" t="n">
-        <v>12.57166666666665</v>
+        <v>12.58333333333331</v>
       </c>
       <c r="H84" t="n">
+        <v>0</v>
+      </c>
+      <c r="I84" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2566,24 +2820,27 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>12.5</v>
+        <v>12.3</v>
       </c>
       <c r="C85" t="n">
-        <v>12.5</v>
+        <v>12.3</v>
       </c>
       <c r="D85" t="n">
-        <v>12.5</v>
+        <v>12.3</v>
       </c>
       <c r="E85" t="n">
-        <v>12.5</v>
+        <v>12.3</v>
       </c>
       <c r="F85" t="n">
-        <v>12</v>
+        <v>22000</v>
       </c>
       <c r="G85" t="n">
-        <v>12.56333333333331</v>
+        <v>12.57166666666665</v>
       </c>
       <c r="H85" t="n">
+        <v>0</v>
+      </c>
+      <c r="I85" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2604,12 +2861,15 @@
         <v>12.5</v>
       </c>
       <c r="F86" t="n">
-        <v>16469.2</v>
+        <v>12</v>
       </c>
       <c r="G86" t="n">
-        <v>12.55833333333331</v>
+        <v>12.56333333333331</v>
       </c>
       <c r="H86" t="n">
+        <v>0</v>
+      </c>
+      <c r="I86" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2630,12 +2890,15 @@
         <v>12.5</v>
       </c>
       <c r="F87" t="n">
-        <v>5230</v>
+        <v>16469.2</v>
       </c>
       <c r="G87" t="n">
-        <v>12.55333333333331</v>
+        <v>12.55833333333331</v>
       </c>
       <c r="H87" t="n">
+        <v>0</v>
+      </c>
+      <c r="I87" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2656,12 +2919,15 @@
         <v>12.5</v>
       </c>
       <c r="F88" t="n">
-        <v>3610</v>
+        <v>5230</v>
       </c>
       <c r="G88" t="n">
-        <v>12.54833333333331</v>
+        <v>12.55333333333331</v>
       </c>
       <c r="H88" t="n">
+        <v>0</v>
+      </c>
+      <c r="I88" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2670,24 +2936,27 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>12.4</v>
+        <v>12.5</v>
       </c>
       <c r="C89" t="n">
-        <v>12.4</v>
+        <v>12.5</v>
       </c>
       <c r="D89" t="n">
-        <v>12.4</v>
+        <v>12.5</v>
       </c>
       <c r="E89" t="n">
-        <v>12.4</v>
+        <v>12.5</v>
       </c>
       <c r="F89" t="n">
-        <v>945.0377999999999</v>
+        <v>3610</v>
       </c>
       <c r="G89" t="n">
-        <v>12.54166666666665</v>
+        <v>12.54833333333331</v>
       </c>
       <c r="H89" t="n">
+        <v>0</v>
+      </c>
+      <c r="I89" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2708,12 +2977,15 @@
         <v>12.4</v>
       </c>
       <c r="F90" t="n">
-        <v>52063.2297</v>
+        <v>945.0377999999999</v>
       </c>
       <c r="G90" t="n">
-        <v>12.53499999999998</v>
+        <v>12.54166666666665</v>
       </c>
       <c r="H90" t="n">
+        <v>0</v>
+      </c>
+      <c r="I90" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2722,24 +2994,27 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>12.6</v>
+        <v>12.4</v>
       </c>
       <c r="C91" t="n">
-        <v>12.6</v>
+        <v>12.4</v>
       </c>
       <c r="D91" t="n">
-        <v>12.6</v>
+        <v>12.4</v>
       </c>
       <c r="E91" t="n">
-        <v>12.6</v>
+        <v>12.4</v>
       </c>
       <c r="F91" t="n">
-        <v>1005.7142</v>
+        <v>52063.2297</v>
       </c>
       <c r="G91" t="n">
-        <v>12.53166666666665</v>
+        <v>12.53499999999998</v>
       </c>
       <c r="H91" t="n">
+        <v>0</v>
+      </c>
+      <c r="I91" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2760,12 +3035,15 @@
         <v>12.6</v>
       </c>
       <c r="F92" t="n">
-        <v>79.36507936507937</v>
+        <v>1005.7142</v>
       </c>
       <c r="G92" t="n">
-        <v>12.52833333333332</v>
+        <v>12.53166666666665</v>
       </c>
       <c r="H92" t="n">
+        <v>0</v>
+      </c>
+      <c r="I92" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2774,24 +3052,27 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>12.4</v>
+        <v>12.6</v>
       </c>
       <c r="C93" t="n">
-        <v>12.4</v>
+        <v>12.6</v>
       </c>
       <c r="D93" t="n">
-        <v>12.4</v>
+        <v>12.6</v>
       </c>
       <c r="E93" t="n">
-        <v>12.4</v>
+        <v>12.6</v>
       </c>
       <c r="F93" t="n">
-        <v>3642.67</v>
+        <v>79.36507936507937</v>
       </c>
       <c r="G93" t="n">
-        <v>12.51833333333332</v>
+        <v>12.52833333333332</v>
       </c>
       <c r="H93" t="n">
+        <v>0</v>
+      </c>
+      <c r="I93" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2812,12 +3093,15 @@
         <v>12.4</v>
       </c>
       <c r="F94" t="n">
-        <v>10.9725</v>
+        <v>3642.67</v>
       </c>
       <c r="G94" t="n">
-        <v>12.51166666666665</v>
+        <v>12.51833333333332</v>
       </c>
       <c r="H94" t="n">
+        <v>0</v>
+      </c>
+      <c r="I94" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2838,12 +3122,15 @@
         <v>12.4</v>
       </c>
       <c r="F95" t="n">
-        <v>4859.0458</v>
+        <v>10.9725</v>
       </c>
       <c r="G95" t="n">
-        <v>12.50166666666665</v>
+        <v>12.51166666666665</v>
       </c>
       <c r="H95" t="n">
+        <v>0</v>
+      </c>
+      <c r="I95" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2852,24 +3139,27 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>12.5</v>
+        <v>12.4</v>
       </c>
       <c r="C96" t="n">
-        <v>12.5</v>
+        <v>12.4</v>
       </c>
       <c r="D96" t="n">
-        <v>12.5</v>
+        <v>12.4</v>
       </c>
       <c r="E96" t="n">
-        <v>12.5</v>
+        <v>12.4</v>
       </c>
       <c r="F96" t="n">
-        <v>15187.92</v>
+        <v>4859.0458</v>
       </c>
       <c r="G96" t="n">
-        <v>12.49666666666665</v>
+        <v>12.50166666666665</v>
       </c>
       <c r="H96" t="n">
+        <v>0</v>
+      </c>
+      <c r="I96" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2890,12 +3180,15 @@
         <v>12.5</v>
       </c>
       <c r="F97" t="n">
-        <v>5910.82</v>
+        <v>15187.92</v>
       </c>
       <c r="G97" t="n">
-        <v>12.48833333333332</v>
+        <v>12.49666666666665</v>
       </c>
       <c r="H97" t="n">
+        <v>0</v>
+      </c>
+      <c r="I97" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2904,24 +3197,27 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>12.6</v>
+        <v>12.5</v>
       </c>
       <c r="C98" t="n">
-        <v>12.6</v>
+        <v>12.5</v>
       </c>
       <c r="D98" t="n">
-        <v>12.6</v>
+        <v>12.5</v>
       </c>
       <c r="E98" t="n">
-        <v>12.6</v>
+        <v>12.5</v>
       </c>
       <c r="F98" t="n">
-        <v>1439.4546</v>
+        <v>5910.82</v>
       </c>
       <c r="G98" t="n">
-        <v>12.48499999999999</v>
+        <v>12.48833333333332</v>
       </c>
       <c r="H98" t="n">
+        <v>0</v>
+      </c>
+      <c r="I98" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2930,24 +3226,27 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>12.5</v>
+        <v>12.6</v>
       </c>
       <c r="C99" t="n">
-        <v>12.5</v>
+        <v>12.6</v>
       </c>
       <c r="D99" t="n">
-        <v>12.5</v>
+        <v>12.6</v>
       </c>
       <c r="E99" t="n">
-        <v>12.5</v>
+        <v>12.6</v>
       </c>
       <c r="F99" t="n">
-        <v>32632.215</v>
+        <v>1439.4546</v>
       </c>
       <c r="G99" t="n">
-        <v>12.47999999999999</v>
+        <v>12.48499999999999</v>
       </c>
       <c r="H99" t="n">
+        <v>0</v>
+      </c>
+      <c r="I99" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2968,12 +3267,15 @@
         <v>12.5</v>
       </c>
       <c r="F100" t="n">
-        <v>2181.4</v>
+        <v>32632.215</v>
       </c>
       <c r="G100" t="n">
-        <v>12.47833333333332</v>
+        <v>12.47999999999999</v>
       </c>
       <c r="H100" t="n">
+        <v>0</v>
+      </c>
+      <c r="I100" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2994,12 +3296,15 @@
         <v>12.5</v>
       </c>
       <c r="F101" t="n">
-        <v>2497.69</v>
+        <v>2181.4</v>
       </c>
       <c r="G101" t="n">
-        <v>12.47666666666665</v>
+        <v>12.47833333333332</v>
       </c>
       <c r="H101" t="n">
+        <v>0</v>
+      </c>
+      <c r="I101" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3020,12 +3325,15 @@
         <v>12.5</v>
       </c>
       <c r="F102" t="n">
-        <v>7187.6</v>
+        <v>2497.69</v>
       </c>
       <c r="G102" t="n">
         <v>12.47666666666665</v>
       </c>
       <c r="H102" t="n">
+        <v>0</v>
+      </c>
+      <c r="I102" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3046,12 +3354,15 @@
         <v>12.5</v>
       </c>
       <c r="F103" t="n">
-        <v>2814</v>
+        <v>7187.6</v>
       </c>
       <c r="G103" t="n">
-        <v>12.47333333333332</v>
+        <v>12.47666666666665</v>
       </c>
       <c r="H103" t="n">
+        <v>0</v>
+      </c>
+      <c r="I103" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3072,12 +3383,15 @@
         <v>12.5</v>
       </c>
       <c r="F104" t="n">
-        <v>9428.16</v>
+        <v>2814</v>
       </c>
       <c r="G104" t="n">
-        <v>12.46999999999998</v>
+        <v>12.47333333333332</v>
       </c>
       <c r="H104" t="n">
+        <v>0</v>
+      </c>
+      <c r="I104" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3098,12 +3412,15 @@
         <v>12.5</v>
       </c>
       <c r="F105" t="n">
-        <v>12160.195</v>
+        <v>9428.16</v>
       </c>
       <c r="G105" t="n">
-        <v>12.46833333333332</v>
+        <v>12.46999999999998</v>
       </c>
       <c r="H105" t="n">
+        <v>0</v>
+      </c>
+      <c r="I105" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3112,24 +3429,27 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>12.4</v>
+        <v>12.5</v>
       </c>
       <c r="C106" t="n">
-        <v>12.4</v>
+        <v>12.5</v>
       </c>
       <c r="D106" t="n">
-        <v>12.4</v>
+        <v>12.5</v>
       </c>
       <c r="E106" t="n">
-        <v>12.4</v>
+        <v>12.5</v>
       </c>
       <c r="F106" t="n">
-        <v>103856.1077</v>
+        <v>12160.195</v>
       </c>
       <c r="G106" t="n">
-        <v>12.46666666666665</v>
+        <v>12.46833333333332</v>
       </c>
       <c r="H106" t="n">
+        <v>0</v>
+      </c>
+      <c r="I106" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3138,24 +3458,27 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>12.5</v>
+        <v>12.4</v>
       </c>
       <c r="C107" t="n">
-        <v>12.5</v>
+        <v>12.4</v>
       </c>
       <c r="D107" t="n">
-        <v>12.5</v>
+        <v>12.4</v>
       </c>
       <c r="E107" t="n">
-        <v>12.5</v>
+        <v>12.4</v>
       </c>
       <c r="F107" t="n">
-        <v>10</v>
+        <v>103856.1077</v>
       </c>
       <c r="G107" t="n">
         <v>12.46666666666665</v>
       </c>
       <c r="H107" t="n">
+        <v>0</v>
+      </c>
+      <c r="I107" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3164,24 +3487,27 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>12.4</v>
+        <v>12.5</v>
       </c>
       <c r="C108" t="n">
-        <v>12.4</v>
+        <v>12.5</v>
       </c>
       <c r="D108" t="n">
-        <v>12.4</v>
+        <v>12.5</v>
       </c>
       <c r="E108" t="n">
-        <v>12.4</v>
+        <v>12.5</v>
       </c>
       <c r="F108" t="n">
-        <v>2244.28</v>
+        <v>10</v>
       </c>
       <c r="G108" t="n">
-        <v>12.46499999999998</v>
+        <v>12.46666666666665</v>
       </c>
       <c r="H108" t="n">
+        <v>0</v>
+      </c>
+      <c r="I108" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3190,24 +3516,27 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>12.5</v>
+        <v>12.4</v>
       </c>
       <c r="C109" t="n">
-        <v>12.5</v>
+        <v>12.4</v>
       </c>
       <c r="D109" t="n">
-        <v>12.5</v>
+        <v>12.4</v>
       </c>
       <c r="E109" t="n">
-        <v>12.5</v>
+        <v>12.4</v>
       </c>
       <c r="F109" t="n">
-        <v>37.92</v>
+        <v>2244.28</v>
       </c>
       <c r="G109" t="n">
-        <v>12.46666666666665</v>
+        <v>12.46499999999998</v>
       </c>
       <c r="H109" t="n">
+        <v>0</v>
+      </c>
+      <c r="I109" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3216,24 +3545,27 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>12.6</v>
+        <v>12.5</v>
       </c>
       <c r="C110" t="n">
-        <v>12.6</v>
+        <v>12.5</v>
       </c>
       <c r="D110" t="n">
-        <v>12.6</v>
+        <v>12.5</v>
       </c>
       <c r="E110" t="n">
-        <v>12.6</v>
+        <v>12.5</v>
       </c>
       <c r="F110" t="n">
-        <v>10</v>
+        <v>37.92</v>
       </c>
       <c r="G110" t="n">
-        <v>12.46833333333332</v>
+        <v>12.46666666666665</v>
       </c>
       <c r="H110" t="n">
+        <v>0</v>
+      </c>
+      <c r="I110" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3245,21 +3577,24 @@
         <v>12.6</v>
       </c>
       <c r="C111" t="n">
-        <v>12.4</v>
+        <v>12.6</v>
       </c>
       <c r="D111" t="n">
         <v>12.6</v>
       </c>
       <c r="E111" t="n">
-        <v>12.4</v>
+        <v>12.6</v>
       </c>
       <c r="F111" t="n">
-        <v>76654.2</v>
+        <v>10</v>
       </c>
       <c r="G111" t="n">
-        <v>12.46499999999998</v>
+        <v>12.46833333333332</v>
       </c>
       <c r="H111" t="n">
+        <v>0</v>
+      </c>
+      <c r="I111" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3271,21 +3606,24 @@
         <v>12.6</v>
       </c>
       <c r="C112" t="n">
-        <v>12.6</v>
+        <v>12.4</v>
       </c>
       <c r="D112" t="n">
         <v>12.6</v>
       </c>
       <c r="E112" t="n">
-        <v>12.6</v>
+        <v>12.4</v>
       </c>
       <c r="F112" t="n">
-        <v>13350.7334</v>
+        <v>76654.2</v>
       </c>
       <c r="G112" t="n">
-        <v>12.46666666666665</v>
+        <v>12.46499999999998</v>
       </c>
       <c r="H112" t="n">
+        <v>0</v>
+      </c>
+      <c r="I112" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3297,21 +3635,24 @@
         <v>12.6</v>
       </c>
       <c r="C113" t="n">
-        <v>12.5</v>
+        <v>12.6</v>
       </c>
       <c r="D113" t="n">
         <v>12.6</v>
       </c>
       <c r="E113" t="n">
-        <v>12.5</v>
+        <v>12.6</v>
       </c>
       <c r="F113" t="n">
-        <v>8689.266600000001</v>
+        <v>13350.7334</v>
       </c>
       <c r="G113" t="n">
         <v>12.46666666666665</v>
       </c>
       <c r="H113" t="n">
+        <v>0</v>
+      </c>
+      <c r="I113" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3323,21 +3664,24 @@
         <v>12.6</v>
       </c>
       <c r="C114" t="n">
-        <v>12.6</v>
+        <v>12.5</v>
       </c>
       <c r="D114" t="n">
         <v>12.6</v>
       </c>
       <c r="E114" t="n">
-        <v>12.6</v>
+        <v>12.5</v>
       </c>
       <c r="F114" t="n">
-        <v>1003.1999</v>
+        <v>8689.266600000001</v>
       </c>
       <c r="G114" t="n">
-        <v>12.46833333333332</v>
+        <v>12.46666666666665</v>
       </c>
       <c r="H114" t="n">
+        <v>0</v>
+      </c>
+      <c r="I114" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3346,24 +3690,27 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>12.5</v>
+        <v>12.6</v>
       </c>
       <c r="C115" t="n">
-        <v>12.5</v>
+        <v>12.6</v>
       </c>
       <c r="D115" t="n">
-        <v>12.5</v>
+        <v>12.6</v>
       </c>
       <c r="E115" t="n">
-        <v>12.5</v>
+        <v>12.6</v>
       </c>
       <c r="F115" t="n">
-        <v>5616.6</v>
+        <v>1003.1999</v>
       </c>
       <c r="G115" t="n">
-        <v>12.46666666666665</v>
+        <v>12.46833333333332</v>
       </c>
       <c r="H115" t="n">
+        <v>0</v>
+      </c>
+      <c r="I115" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3372,24 +3719,27 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>12.6</v>
+        <v>12.5</v>
       </c>
       <c r="C116" t="n">
-        <v>12.6</v>
+        <v>12.5</v>
       </c>
       <c r="D116" t="n">
-        <v>12.6</v>
+        <v>12.5</v>
       </c>
       <c r="E116" t="n">
-        <v>12.6</v>
+        <v>12.5</v>
       </c>
       <c r="F116" t="n">
-        <v>49122.7777</v>
+        <v>5616.6</v>
       </c>
       <c r="G116" t="n">
-        <v>12.46499999999998</v>
+        <v>12.46666666666665</v>
       </c>
       <c r="H116" t="n">
+        <v>0</v>
+      </c>
+      <c r="I116" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3410,12 +3760,15 @@
         <v>12.6</v>
       </c>
       <c r="F117" t="n">
-        <v>4348.0158</v>
+        <v>49122.7777</v>
       </c>
       <c r="G117" t="n">
         <v>12.46499999999998</v>
       </c>
       <c r="H117" t="n">
+        <v>0</v>
+      </c>
+      <c r="I117" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3424,24 +3777,27 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>12.5</v>
+        <v>12.6</v>
       </c>
       <c r="C118" t="n">
-        <v>12.5</v>
+        <v>12.6</v>
       </c>
       <c r="D118" t="n">
-        <v>12.5</v>
+        <v>12.6</v>
       </c>
       <c r="E118" t="n">
-        <v>12.5</v>
+        <v>12.6</v>
       </c>
       <c r="F118" t="n">
-        <v>4337.1458</v>
+        <v>4348.0158</v>
       </c>
       <c r="G118" t="n">
-        <v>12.46333333333332</v>
+        <v>12.46499999999998</v>
       </c>
       <c r="H118" t="n">
+        <v>0</v>
+      </c>
+      <c r="I118" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3450,24 +3806,27 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>12.7</v>
+        <v>12.5</v>
       </c>
       <c r="C119" t="n">
-        <v>12.7</v>
+        <v>12.5</v>
       </c>
       <c r="D119" t="n">
-        <v>12.7</v>
+        <v>12.5</v>
       </c>
       <c r="E119" t="n">
-        <v>12.7</v>
+        <v>12.5</v>
       </c>
       <c r="F119" t="n">
-        <v>30</v>
+        <v>4337.1458</v>
       </c>
       <c r="G119" t="n">
-        <v>12.46666666666665</v>
+        <v>12.46333333333332</v>
       </c>
       <c r="H119" t="n">
+        <v>0</v>
+      </c>
+      <c r="I119" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3476,24 +3835,27 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>12.5</v>
+        <v>12.7</v>
       </c>
       <c r="C120" t="n">
-        <v>12.5</v>
+        <v>12.7</v>
       </c>
       <c r="D120" t="n">
-        <v>12.5</v>
+        <v>12.7</v>
       </c>
       <c r="E120" t="n">
-        <v>12.5</v>
+        <v>12.7</v>
       </c>
       <c r="F120" t="n">
-        <v>1087.3309</v>
+        <v>30</v>
       </c>
       <c r="G120" t="n">
-        <v>12.45999999999998</v>
+        <v>12.46666666666665</v>
       </c>
       <c r="H120" t="n">
+        <v>0</v>
+      </c>
+      <c r="I120" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3502,24 +3864,27 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>12.4</v>
+        <v>12.5</v>
       </c>
       <c r="C121" t="n">
-        <v>12.4</v>
+        <v>12.5</v>
       </c>
       <c r="D121" t="n">
-        <v>12.4</v>
+        <v>12.5</v>
       </c>
       <c r="E121" t="n">
-        <v>12.4</v>
+        <v>12.5</v>
       </c>
       <c r="F121" t="n">
-        <v>70143.45940000001</v>
+        <v>1087.3309</v>
       </c>
       <c r="G121" t="n">
-        <v>12.45833333333332</v>
+        <v>12.45999999999998</v>
       </c>
       <c r="H121" t="n">
+        <v>0</v>
+      </c>
+      <c r="I121" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3528,24 +3893,27 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>12.5</v>
+        <v>12.4</v>
       </c>
       <c r="C122" t="n">
-        <v>12.5</v>
+        <v>12.4</v>
       </c>
       <c r="D122" t="n">
-        <v>12.5</v>
+        <v>12.4</v>
       </c>
       <c r="E122" t="n">
-        <v>12.5</v>
+        <v>12.4</v>
       </c>
       <c r="F122" t="n">
-        <v>5120.042</v>
+        <v>70143.45940000001</v>
       </c>
       <c r="G122" t="n">
-        <v>12.45999999999998</v>
+        <v>12.45833333333332</v>
       </c>
       <c r="H122" t="n">
+        <v>0</v>
+      </c>
+      <c r="I122" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3554,24 +3922,27 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>12.8</v>
+        <v>12.5</v>
       </c>
       <c r="C123" t="n">
-        <v>12.8</v>
+        <v>12.5</v>
       </c>
       <c r="D123" t="n">
-        <v>12.8</v>
+        <v>12.5</v>
       </c>
       <c r="E123" t="n">
-        <v>12.8</v>
+        <v>12.5</v>
       </c>
       <c r="F123" t="n">
-        <v>12</v>
+        <v>5120.042</v>
       </c>
       <c r="G123" t="n">
-        <v>12.46666666666665</v>
+        <v>12.45999999999998</v>
       </c>
       <c r="H123" t="n">
+        <v>0</v>
+      </c>
+      <c r="I123" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3592,12 +3963,15 @@
         <v>12.8</v>
       </c>
       <c r="F124" t="n">
-        <v>14527.578075</v>
+        <v>12</v>
       </c>
       <c r="G124" t="n">
-        <v>12.47666666666665</v>
+        <v>12.46666666666665</v>
       </c>
       <c r="H124" t="n">
+        <v>0</v>
+      </c>
+      <c r="I124" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3609,21 +3983,24 @@
         <v>12.8</v>
       </c>
       <c r="C125" t="n">
-        <v>12.9</v>
+        <v>12.8</v>
       </c>
       <c r="D125" t="n">
-        <v>12.9</v>
+        <v>12.8</v>
       </c>
       <c r="E125" t="n">
         <v>12.8</v>
       </c>
       <c r="F125" t="n">
-        <v>26109.84823197674</v>
+        <v>14527.578075</v>
       </c>
       <c r="G125" t="n">
-        <v>12.48999999999998</v>
+        <v>12.47666666666665</v>
       </c>
       <c r="H125" t="n">
+        <v>0</v>
+      </c>
+      <c r="I125" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3644,12 +4021,15 @@
         <v>12.8</v>
       </c>
       <c r="F126" t="n">
-        <v>14877.13178294574</v>
+        <v>26109.84823197674</v>
       </c>
       <c r="G126" t="n">
-        <v>12.49999999999998</v>
+        <v>12.48999999999998</v>
       </c>
       <c r="H126" t="n">
+        <v>0</v>
+      </c>
+      <c r="I126" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3670,12 +4050,15 @@
         <v>12.8</v>
       </c>
       <c r="F127" t="n">
-        <v>95963.9534</v>
+        <v>14877.13178294574</v>
       </c>
       <c r="G127" t="n">
-        <v>12.50999999999998</v>
+        <v>12.49999999999998</v>
       </c>
       <c r="H127" t="n">
+        <v>0</v>
+      </c>
+      <c r="I127" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3684,24 +4067,27 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="C128" t="n">
         <v>12.9</v>
       </c>
-      <c r="C128" t="n">
-        <v>13.1</v>
-      </c>
       <c r="D128" t="n">
-        <v>13.1</v>
+        <v>12.9</v>
       </c>
       <c r="E128" t="n">
-        <v>12.9</v>
+        <v>12.8</v>
       </c>
       <c r="F128" t="n">
-        <v>246115.6039</v>
+        <v>95963.9534</v>
       </c>
       <c r="G128" t="n">
-        <v>12.52333333333332</v>
+        <v>12.50999999999998</v>
       </c>
       <c r="H128" t="n">
+        <v>0</v>
+      </c>
+      <c r="I128" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3710,24 +4096,27 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
+        <v>12.9</v>
+      </c>
+      <c r="C129" t="n">
         <v>13.1</v>
       </c>
-      <c r="C129" t="n">
-        <v>13.6</v>
-      </c>
       <c r="D129" t="n">
-        <v>13.6</v>
+        <v>13.1</v>
       </c>
       <c r="E129" t="n">
-        <v>13.1</v>
+        <v>12.9</v>
       </c>
       <c r="F129" t="n">
-        <v>644423.0066639705</v>
+        <v>246115.6039</v>
       </c>
       <c r="G129" t="n">
-        <v>12.54333333333332</v>
+        <v>12.52333333333332</v>
       </c>
       <c r="H129" t="n">
+        <v>0</v>
+      </c>
+      <c r="I129" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3736,7 +4125,7 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>13.4</v>
+        <v>13.1</v>
       </c>
       <c r="C130" t="n">
         <v>13.6</v>
@@ -3745,15 +4134,18 @@
         <v>13.6</v>
       </c>
       <c r="E130" t="n">
-        <v>13.4</v>
+        <v>13.1</v>
       </c>
       <c r="F130" t="n">
-        <v>246778.8681360294</v>
+        <v>644423.0066639705</v>
       </c>
       <c r="G130" t="n">
-        <v>12.56166666666665</v>
+        <v>12.54333333333332</v>
       </c>
       <c r="H130" t="n">
+        <v>0</v>
+      </c>
+      <c r="I130" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3762,25 +4154,28 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>13.7</v>
+        <v>13.4</v>
       </c>
       <c r="C131" t="n">
-        <v>13.9</v>
+        <v>13.6</v>
       </c>
       <c r="D131" t="n">
-        <v>14.1</v>
+        <v>13.6</v>
       </c>
       <c r="E131" t="n">
-        <v>13.7</v>
+        <v>13.4</v>
       </c>
       <c r="F131" t="n">
-        <v>349400.1855</v>
+        <v>246778.8681360294</v>
       </c>
       <c r="G131" t="n">
-        <v>12.58499999999998</v>
+        <v>12.56166666666665</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
+      </c>
+      <c r="I131" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="132">
@@ -3791,22 +4186,25 @@
         <v>13.7</v>
       </c>
       <c r="C132" t="n">
-        <v>13.6</v>
+        <v>13.9</v>
       </c>
       <c r="D132" t="n">
-        <v>13.7</v>
+        <v>14.1</v>
       </c>
       <c r="E132" t="n">
-        <v>13.6</v>
+        <v>13.7</v>
       </c>
       <c r="F132" t="n">
-        <v>59928.07598832116</v>
+        <v>349400.1855</v>
       </c>
       <c r="G132" t="n">
-        <v>12.60499999999998</v>
+        <v>12.58499999999998</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
+      </c>
+      <c r="I132" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="133">
@@ -3814,25 +4212,28 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>13.3</v>
+        <v>13.7</v>
       </c>
       <c r="C133" t="n">
-        <v>13.7</v>
+        <v>13.6</v>
       </c>
       <c r="D133" t="n">
         <v>13.7</v>
       </c>
       <c r="E133" t="n">
-        <v>13.3</v>
+        <v>13.6</v>
       </c>
       <c r="F133" t="n">
-        <v>41003.1533</v>
+        <v>59928.07598832116</v>
       </c>
       <c r="G133" t="n">
-        <v>12.62666666666665</v>
+        <v>12.60499999999998</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
+      </c>
+      <c r="I133" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="134">
@@ -3840,24 +4241,27 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>13.6</v>
+        <v>13.3</v>
       </c>
       <c r="C134" t="n">
-        <v>14.2</v>
+        <v>13.7</v>
       </c>
       <c r="D134" t="n">
-        <v>14.2</v>
+        <v>13.7</v>
       </c>
       <c r="E134" t="n">
-        <v>13.6</v>
+        <v>13.3</v>
       </c>
       <c r="F134" t="n">
-        <v>739702.3709</v>
+        <v>41003.1533</v>
       </c>
       <c r="G134" t="n">
-        <v>12.65666666666665</v>
+        <v>12.62666666666665</v>
       </c>
       <c r="H134" t="n">
+        <v>0</v>
+      </c>
+      <c r="I134" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3866,24 +4270,27 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>14.3</v>
+        <v>13.6</v>
       </c>
       <c r="C135" t="n">
         <v>14.2</v>
       </c>
       <c r="D135" t="n">
-        <v>14.3</v>
+        <v>14.2</v>
       </c>
       <c r="E135" t="n">
-        <v>14.2</v>
+        <v>13.6</v>
       </c>
       <c r="F135" t="n">
-        <v>198712.2573</v>
+        <v>739702.3709</v>
       </c>
       <c r="G135" t="n">
-        <v>12.68499999999999</v>
+        <v>12.65666666666665</v>
       </c>
       <c r="H135" t="n">
+        <v>0</v>
+      </c>
+      <c r="I135" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3892,25 +4299,28 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>13.9</v>
+        <v>14.3</v>
       </c>
       <c r="C136" t="n">
-        <v>13.7</v>
+        <v>14.2</v>
       </c>
       <c r="D136" t="n">
-        <v>13.9</v>
+        <v>14.3</v>
       </c>
       <c r="E136" t="n">
-        <v>13.7</v>
+        <v>14.2</v>
       </c>
       <c r="F136" t="n">
-        <v>95677.1444</v>
+        <v>198712.2573</v>
       </c>
       <c r="G136" t="n">
-        <v>12.70666666666665</v>
+        <v>12.68499999999999</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
+      </c>
+      <c r="I136" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="137">
@@ -3918,24 +4328,27 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>13.8</v>
+        <v>13.9</v>
       </c>
       <c r="C137" t="n">
         <v>13.7</v>
       </c>
       <c r="D137" t="n">
-        <v>13.8</v>
+        <v>13.9</v>
       </c>
       <c r="E137" t="n">
         <v>13.7</v>
       </c>
       <c r="F137" t="n">
-        <v>7191.152378260869</v>
+        <v>95677.1444</v>
       </c>
       <c r="G137" t="n">
-        <v>12.72833333333332</v>
+        <v>12.70666666666665</v>
       </c>
       <c r="H137" t="n">
+        <v>0</v>
+      </c>
+      <c r="I137" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3944,7 +4357,7 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>13.7</v>
+        <v>13.8</v>
       </c>
       <c r="C138" t="n">
         <v>13.7</v>
@@ -3956,12 +4369,15 @@
         <v>13.7</v>
       </c>
       <c r="F138" t="n">
-        <v>105485.1139471014</v>
+        <v>7191.152378260869</v>
       </c>
       <c r="G138" t="n">
-        <v>12.74833333333332</v>
+        <v>12.72833333333332</v>
       </c>
       <c r="H138" t="n">
+        <v>0</v>
+      </c>
+      <c r="I138" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3970,24 +4386,27 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>13.6</v>
+        <v>13.7</v>
       </c>
       <c r="C139" t="n">
-        <v>13.8</v>
+        <v>13.7</v>
       </c>
       <c r="D139" t="n">
         <v>13.8</v>
       </c>
       <c r="E139" t="n">
-        <v>13.6</v>
+        <v>13.7</v>
       </c>
       <c r="F139" t="n">
-        <v>416494.0668</v>
+        <v>105485.1139471014</v>
       </c>
       <c r="G139" t="n">
-        <v>12.76999999999999</v>
+        <v>12.74833333333332</v>
       </c>
       <c r="H139" t="n">
+        <v>0</v>
+      </c>
+      <c r="I139" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3996,24 +4415,27 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>13.7</v>
+        <v>13.6</v>
       </c>
       <c r="C140" t="n">
-        <v>13.7</v>
+        <v>13.8</v>
       </c>
       <c r="D140" t="n">
         <v>13.8</v>
       </c>
       <c r="E140" t="n">
-        <v>13.7</v>
+        <v>13.6</v>
       </c>
       <c r="F140" t="n">
-        <v>103606.9486</v>
+        <v>416494.0668</v>
       </c>
       <c r="G140" t="n">
-        <v>12.79166666666666</v>
+        <v>12.76999999999999</v>
       </c>
       <c r="H140" t="n">
+        <v>0</v>
+      </c>
+      <c r="I140" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4025,21 +4447,24 @@
         <v>13.7</v>
       </c>
       <c r="C141" t="n">
-        <v>13.6</v>
+        <v>13.7</v>
       </c>
       <c r="D141" t="n">
-        <v>13.7</v>
+        <v>13.8</v>
       </c>
       <c r="E141" t="n">
-        <v>13.5</v>
+        <v>13.7</v>
       </c>
       <c r="F141" t="n">
-        <v>142039.9707</v>
+        <v>103606.9486</v>
       </c>
       <c r="G141" t="n">
-        <v>12.81333333333333</v>
+        <v>12.79166666666666</v>
       </c>
       <c r="H141" t="n">
+        <v>0</v>
+      </c>
+      <c r="I141" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4048,24 +4473,27 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>13.6</v>
+        <v>13.7</v>
       </c>
       <c r="C142" t="n">
         <v>13.6</v>
       </c>
       <c r="D142" t="n">
-        <v>13.6</v>
+        <v>13.7</v>
       </c>
       <c r="E142" t="n">
-        <v>13.6</v>
+        <v>13.5</v>
       </c>
       <c r="F142" t="n">
-        <v>31852.3</v>
+        <v>142039.9707</v>
       </c>
       <c r="G142" t="n">
-        <v>12.83166666666666</v>
+        <v>12.81333333333333</v>
       </c>
       <c r="H142" t="n">
+        <v>0</v>
+      </c>
+      <c r="I142" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4086,12 +4514,15 @@
         <v>13.6</v>
       </c>
       <c r="F143" t="n">
-        <v>26338.0542</v>
+        <v>31852.3</v>
       </c>
       <c r="G143" t="n">
-        <v>12.84999999999999</v>
+        <v>12.83166666666666</v>
       </c>
       <c r="H143" t="n">
+        <v>0</v>
+      </c>
+      <c r="I143" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4100,24 +4531,27 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>13.5</v>
+        <v>13.6</v>
       </c>
       <c r="C144" t="n">
-        <v>13.4</v>
+        <v>13.6</v>
       </c>
       <c r="D144" t="n">
         <v>13.6</v>
       </c>
       <c r="E144" t="n">
-        <v>13.4</v>
+        <v>13.6</v>
       </c>
       <c r="F144" t="n">
-        <v>169308.3166</v>
+        <v>26338.0542</v>
       </c>
       <c r="G144" t="n">
-        <v>12.86833333333333</v>
+        <v>12.84999999999999</v>
       </c>
       <c r="H144" t="n">
+        <v>0</v>
+      </c>
+      <c r="I144" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4126,24 +4560,27 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>13.4</v>
+        <v>13.5</v>
       </c>
       <c r="C145" t="n">
         <v>13.4</v>
       </c>
       <c r="D145" t="n">
-        <v>13.4</v>
+        <v>13.6</v>
       </c>
       <c r="E145" t="n">
         <v>13.4</v>
       </c>
       <c r="F145" t="n">
-        <v>264567.8892</v>
+        <v>169308.3166</v>
       </c>
       <c r="G145" t="n">
-        <v>12.88333333333333</v>
+        <v>12.86833333333333</v>
       </c>
       <c r="H145" t="n">
+        <v>0</v>
+      </c>
+      <c r="I145" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4164,12 +4601,15 @@
         <v>13.4</v>
       </c>
       <c r="F146" t="n">
-        <v>128845.6894</v>
+        <v>264567.8892</v>
       </c>
       <c r="G146" t="n">
-        <v>12.89833333333332</v>
+        <v>12.88333333333333</v>
       </c>
       <c r="H146" t="n">
+        <v>0</v>
+      </c>
+      <c r="I146" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4181,21 +4621,24 @@
         <v>13.4</v>
       </c>
       <c r="C147" t="n">
-        <v>13.5</v>
+        <v>13.4</v>
       </c>
       <c r="D147" t="n">
-        <v>13.5</v>
+        <v>13.4</v>
       </c>
       <c r="E147" t="n">
         <v>13.4</v>
       </c>
       <c r="F147" t="n">
-        <v>1737.5835</v>
+        <v>128845.6894</v>
       </c>
       <c r="G147" t="n">
-        <v>12.91499999999999</v>
+        <v>12.89833333333332</v>
       </c>
       <c r="H147" t="n">
+        <v>0</v>
+      </c>
+      <c r="I147" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4204,7 +4647,7 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>13.5</v>
+        <v>13.4</v>
       </c>
       <c r="C148" t="n">
         <v>13.5</v>
@@ -4213,15 +4656,18 @@
         <v>13.5</v>
       </c>
       <c r="E148" t="n">
-        <v>13.5</v>
+        <v>13.4</v>
       </c>
       <c r="F148" t="n">
-        <v>18974.2962</v>
+        <v>1737.5835</v>
       </c>
       <c r="G148" t="n">
-        <v>12.93166666666666</v>
+        <v>12.91499999999999</v>
       </c>
       <c r="H148" t="n">
+        <v>0</v>
+      </c>
+      <c r="I148" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4230,24 +4676,27 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>13.6</v>
+        <v>13.5</v>
       </c>
       <c r="C149" t="n">
-        <v>13.7</v>
+        <v>13.5</v>
       </c>
       <c r="D149" t="n">
-        <v>13.7</v>
+        <v>13.5</v>
       </c>
       <c r="E149" t="n">
         <v>13.5</v>
       </c>
       <c r="F149" t="n">
-        <v>23393.1513</v>
+        <v>18974.2962</v>
       </c>
       <c r="G149" t="n">
-        <v>12.95333333333333</v>
+        <v>12.93166666666666</v>
       </c>
       <c r="H149" t="n">
+        <v>0</v>
+      </c>
+      <c r="I149" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4256,7 +4705,7 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>13.7</v>
+        <v>13.6</v>
       </c>
       <c r="C150" t="n">
         <v>13.7</v>
@@ -4265,15 +4714,18 @@
         <v>13.7</v>
       </c>
       <c r="E150" t="n">
-        <v>13.7</v>
+        <v>13.5</v>
       </c>
       <c r="F150" t="n">
-        <v>1657.2262</v>
+        <v>23393.1513</v>
       </c>
       <c r="G150" t="n">
-        <v>12.97499999999999</v>
+        <v>12.95333333333333</v>
       </c>
       <c r="H150" t="n">
+        <v>0</v>
+      </c>
+      <c r="I150" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4285,21 +4737,24 @@
         <v>13.7</v>
       </c>
       <c r="C151" t="n">
-        <v>13.8</v>
+        <v>13.7</v>
       </c>
       <c r="D151" t="n">
-        <v>13.8</v>
+        <v>13.7</v>
       </c>
       <c r="E151" t="n">
         <v>13.7</v>
       </c>
       <c r="F151" t="n">
-        <v>94387.54240000001</v>
+        <v>1657.2262</v>
       </c>
       <c r="G151" t="n">
-        <v>12.99499999999999</v>
+        <v>12.97499999999999</v>
       </c>
       <c r="H151" t="n">
+        <v>0</v>
+      </c>
+      <c r="I151" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4308,10 +4763,10 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>13.8</v>
+        <v>13.7</v>
       </c>
       <c r="C152" t="n">
-        <v>13.7</v>
+        <v>13.8</v>
       </c>
       <c r="D152" t="n">
         <v>13.8</v>
@@ -4320,12 +4775,15 @@
         <v>13.7</v>
       </c>
       <c r="F152" t="n">
-        <v>21536.8368</v>
+        <v>94387.54240000001</v>
       </c>
       <c r="G152" t="n">
-        <v>13.01333333333333</v>
+        <v>12.99499999999999</v>
       </c>
       <c r="H152" t="n">
+        <v>0</v>
+      </c>
+      <c r="I152" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4334,24 +4792,27 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>13.7</v>
+        <v>13.8</v>
       </c>
       <c r="C153" t="n">
-        <v>13.6</v>
+        <v>13.7</v>
       </c>
       <c r="D153" t="n">
-        <v>13.7</v>
+        <v>13.8</v>
       </c>
       <c r="E153" t="n">
-        <v>13.6</v>
+        <v>13.7</v>
       </c>
       <c r="F153" t="n">
-        <v>90985.6882</v>
+        <v>21536.8368</v>
       </c>
       <c r="G153" t="n">
-        <v>13.03333333333333</v>
+        <v>13.01333333333333</v>
       </c>
       <c r="H153" t="n">
+        <v>0</v>
+      </c>
+      <c r="I153" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4360,24 +4821,27 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>13.5</v>
+        <v>13.7</v>
       </c>
       <c r="C154" t="n">
-        <v>13.4</v>
+        <v>13.6</v>
       </c>
       <c r="D154" t="n">
-        <v>13.5</v>
+        <v>13.7</v>
       </c>
       <c r="E154" t="n">
-        <v>13.4</v>
+        <v>13.6</v>
       </c>
       <c r="F154" t="n">
-        <v>23774.3714</v>
+        <v>90985.6882</v>
       </c>
       <c r="G154" t="n">
-        <v>13.04999999999999</v>
+        <v>13.03333333333333</v>
       </c>
       <c r="H154" t="n">
+        <v>0</v>
+      </c>
+      <c r="I154" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4386,24 +4850,27 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="C155" t="n">
         <v>13.4</v>
       </c>
-      <c r="C155" t="n">
-        <v>13.6</v>
-      </c>
       <c r="D155" t="n">
-        <v>13.6</v>
+        <v>13.5</v>
       </c>
       <c r="E155" t="n">
         <v>13.4</v>
       </c>
       <c r="F155" t="n">
-        <v>4836.98</v>
+        <v>23774.3714</v>
       </c>
       <c r="G155" t="n">
-        <v>13.06999999999999</v>
+        <v>13.04999999999999</v>
       </c>
       <c r="H155" t="n">
+        <v>0</v>
+      </c>
+      <c r="I155" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4412,24 +4879,27 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>13.5</v>
+        <v>13.4</v>
       </c>
       <c r="C156" t="n">
-        <v>13.4</v>
+        <v>13.6</v>
       </c>
       <c r="D156" t="n">
-        <v>13.5</v>
+        <v>13.6</v>
       </c>
       <c r="E156" t="n">
         <v>13.4</v>
       </c>
       <c r="F156" t="n">
-        <v>18847.44</v>
+        <v>4836.98</v>
       </c>
       <c r="G156" t="n">
-        <v>13.085</v>
+        <v>13.06999999999999</v>
       </c>
       <c r="H156" t="n">
+        <v>0</v>
+      </c>
+      <c r="I156" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4438,24 +4908,27 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>13.4</v>
+        <v>13.5</v>
       </c>
       <c r="C157" t="n">
         <v>13.4</v>
       </c>
       <c r="D157" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="E157" t="n">
         <v>13.4</v>
       </c>
-      <c r="E157" t="n">
-        <v>13.3</v>
-      </c>
       <c r="F157" t="n">
-        <v>69990.0082</v>
+        <v>18847.44</v>
       </c>
       <c r="G157" t="n">
-        <v>13.09999999999999</v>
+        <v>13.085</v>
       </c>
       <c r="H157" t="n">
+        <v>0</v>
+      </c>
+      <c r="I157" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4467,21 +4940,24 @@
         <v>13.4</v>
       </c>
       <c r="C158" t="n">
-        <v>13.5</v>
+        <v>13.4</v>
       </c>
       <c r="D158" t="n">
-        <v>13.5</v>
+        <v>13.4</v>
       </c>
       <c r="E158" t="n">
         <v>13.3</v>
       </c>
       <c r="F158" t="n">
-        <v>73427.38</v>
+        <v>69990.0082</v>
       </c>
       <c r="G158" t="n">
-        <v>13.11499999999999</v>
+        <v>13.09999999999999</v>
       </c>
       <c r="H158" t="n">
+        <v>0</v>
+      </c>
+      <c r="I158" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4490,24 +4966,27 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>13.3</v>
+        <v>13.4</v>
       </c>
       <c r="C159" t="n">
-        <v>13.3</v>
+        <v>13.5</v>
       </c>
       <c r="D159" t="n">
-        <v>13.3</v>
+        <v>13.5</v>
       </c>
       <c r="E159" t="n">
         <v>13.3</v>
       </c>
       <c r="F159" t="n">
-        <v>286191.8748142857</v>
+        <v>73427.38</v>
       </c>
       <c r="G159" t="n">
-        <v>13.12833333333333</v>
+        <v>13.11499999999999</v>
       </c>
       <c r="H159" t="n">
+        <v>0</v>
+      </c>
+      <c r="I159" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4528,12 +5007,15 @@
         <v>13.3</v>
       </c>
       <c r="F160" t="n">
-        <v>36559.43348571428</v>
+        <v>286191.8748142857</v>
       </c>
       <c r="G160" t="n">
-        <v>13.14166666666666</v>
+        <v>13.12833333333333</v>
       </c>
       <c r="H160" t="n">
+        <v>0</v>
+      </c>
+      <c r="I160" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4554,12 +5036,15 @@
         <v>13.3</v>
       </c>
       <c r="F161" t="n">
-        <v>1159.5383</v>
+        <v>36559.43348571428</v>
       </c>
       <c r="G161" t="n">
-        <v>13.15499999999999</v>
+        <v>13.14166666666666</v>
       </c>
       <c r="H161" t="n">
+        <v>0</v>
+      </c>
+      <c r="I161" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4571,21 +5056,24 @@
         <v>13.3</v>
       </c>
       <c r="C162" t="n">
-        <v>13.5</v>
+        <v>13.3</v>
       </c>
       <c r="D162" t="n">
-        <v>13.5</v>
+        <v>13.3</v>
       </c>
       <c r="E162" t="n">
-        <v>13.2</v>
+        <v>13.3</v>
       </c>
       <c r="F162" t="n">
-        <v>106193.106</v>
+        <v>1159.5383</v>
       </c>
       <c r="G162" t="n">
-        <v>13.17166666666666</v>
+        <v>13.15499999999999</v>
       </c>
       <c r="H162" t="n">
+        <v>0</v>
+      </c>
+      <c r="I162" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4594,7 +5082,7 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>13.5</v>
+        <v>13.3</v>
       </c>
       <c r="C163" t="n">
         <v>13.5</v>
@@ -4603,15 +5091,18 @@
         <v>13.5</v>
       </c>
       <c r="E163" t="n">
-        <v>13.5</v>
+        <v>13.2</v>
       </c>
       <c r="F163" t="n">
-        <v>260</v>
+        <v>106193.106</v>
       </c>
       <c r="G163" t="n">
-        <v>13.18833333333333</v>
+        <v>13.17166666666666</v>
       </c>
       <c r="H163" t="n">
+        <v>0</v>
+      </c>
+      <c r="I163" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4620,24 +5111,27 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>13.4</v>
+        <v>13.5</v>
       </c>
       <c r="C164" t="n">
-        <v>13.4</v>
+        <v>13.5</v>
       </c>
       <c r="D164" t="n">
-        <v>13.4</v>
+        <v>13.5</v>
       </c>
       <c r="E164" t="n">
-        <v>13.4</v>
+        <v>13.5</v>
       </c>
       <c r="F164" t="n">
-        <v>36260</v>
+        <v>260</v>
       </c>
       <c r="G164" t="n">
-        <v>13.20333333333332</v>
+        <v>13.18833333333333</v>
       </c>
       <c r="H164" t="n">
+        <v>0</v>
+      </c>
+      <c r="I164" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4646,24 +5140,27 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>13.5</v>
+        <v>13.4</v>
       </c>
       <c r="C165" t="n">
         <v>13.4</v>
       </c>
       <c r="D165" t="n">
-        <v>13.5</v>
+        <v>13.4</v>
       </c>
       <c r="E165" t="n">
         <v>13.4</v>
       </c>
       <c r="F165" t="n">
-        <v>112277.6225</v>
+        <v>36260</v>
       </c>
       <c r="G165" t="n">
-        <v>13.21833333333332</v>
+        <v>13.20333333333332</v>
       </c>
       <c r="H165" t="n">
+        <v>0</v>
+      </c>
+      <c r="I165" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4672,24 +5169,27 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="C166" t="n">
         <v>13.4</v>
       </c>
-      <c r="C166" t="n">
-        <v>13.6</v>
-      </c>
       <c r="D166" t="n">
-        <v>13.6</v>
+        <v>13.5</v>
       </c>
       <c r="E166" t="n">
         <v>13.4</v>
       </c>
       <c r="F166" t="n">
-        <v>52889.7897</v>
+        <v>112277.6225</v>
       </c>
       <c r="G166" t="n">
-        <v>13.23833333333332</v>
+        <v>13.21833333333332</v>
       </c>
       <c r="H166" t="n">
+        <v>0</v>
+      </c>
+      <c r="I166" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4698,24 +5198,27 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>13.5</v>
+        <v>13.4</v>
       </c>
       <c r="C167" t="n">
-        <v>13.3</v>
+        <v>13.6</v>
       </c>
       <c r="D167" t="n">
-        <v>13.5</v>
+        <v>13.6</v>
       </c>
       <c r="E167" t="n">
-        <v>13.3</v>
+        <v>13.4</v>
       </c>
       <c r="F167" t="n">
-        <v>85729.32000000001</v>
+        <v>52889.7897</v>
       </c>
       <c r="G167" t="n">
-        <v>13.25166666666666</v>
+        <v>13.23833333333332</v>
       </c>
       <c r="H167" t="n">
+        <v>0</v>
+      </c>
+      <c r="I167" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4736,12 +5239,15 @@
         <v>13.3</v>
       </c>
       <c r="F168" t="n">
-        <v>73788.9452</v>
+        <v>85729.32000000001</v>
       </c>
       <c r="G168" t="n">
-        <v>13.26666666666666</v>
+        <v>13.25166666666666</v>
       </c>
       <c r="H168" t="n">
+        <v>0</v>
+      </c>
+      <c r="I168" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4753,21 +5259,24 @@
         <v>13.5</v>
       </c>
       <c r="C169" t="n">
-        <v>13.5</v>
+        <v>13.3</v>
       </c>
       <c r="D169" t="n">
         <v>13.5</v>
       </c>
       <c r="E169" t="n">
-        <v>13.5</v>
+        <v>13.3</v>
       </c>
       <c r="F169" t="n">
-        <v>17408</v>
+        <v>73788.9452</v>
       </c>
       <c r="G169" t="n">
-        <v>13.28333333333332</v>
+        <v>13.26666666666666</v>
       </c>
       <c r="H169" t="n">
+        <v>0</v>
+      </c>
+      <c r="I169" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4779,21 +5288,24 @@
         <v>13.5</v>
       </c>
       <c r="C170" t="n">
-        <v>13.4</v>
+        <v>13.5</v>
       </c>
       <c r="D170" t="n">
         <v>13.5</v>
       </c>
       <c r="E170" t="n">
-        <v>13.4</v>
+        <v>13.5</v>
       </c>
       <c r="F170" t="n">
-        <v>16556.6854</v>
+        <v>17408</v>
       </c>
       <c r="G170" t="n">
-        <v>13.29666666666666</v>
+        <v>13.28333333333332</v>
       </c>
       <c r="H170" t="n">
+        <v>0</v>
+      </c>
+      <c r="I170" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4802,24 +5314,27 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>13.4</v>
+        <v>13.5</v>
       </c>
       <c r="C171" t="n">
         <v>13.4</v>
       </c>
       <c r="D171" t="n">
-        <v>13.4</v>
+        <v>13.5</v>
       </c>
       <c r="E171" t="n">
         <v>13.4</v>
       </c>
       <c r="F171" t="n">
-        <v>16220</v>
+        <v>16556.6854</v>
       </c>
       <c r="G171" t="n">
-        <v>13.31333333333332</v>
+        <v>13.29666666666666</v>
       </c>
       <c r="H171" t="n">
+        <v>0</v>
+      </c>
+      <c r="I171" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4828,24 +5343,27 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>13.5</v>
+        <v>13.4</v>
       </c>
       <c r="C172" t="n">
-        <v>13.5</v>
+        <v>13.4</v>
       </c>
       <c r="D172" t="n">
-        <v>13.5</v>
+        <v>13.4</v>
       </c>
       <c r="E172" t="n">
-        <v>13.5</v>
+        <v>13.4</v>
       </c>
       <c r="F172" t="n">
-        <v>51.4074</v>
+        <v>16220</v>
       </c>
       <c r="G172" t="n">
-        <v>13.32833333333332</v>
+        <v>13.31333333333332</v>
       </c>
       <c r="H172" t="n">
+        <v>0</v>
+      </c>
+      <c r="I172" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4854,24 +5372,27 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>13.4</v>
+        <v>13.5</v>
       </c>
       <c r="C173" t="n">
-        <v>13.4</v>
+        <v>13.5</v>
       </c>
       <c r="D173" t="n">
-        <v>13.4</v>
+        <v>13.5</v>
       </c>
       <c r="E173" t="n">
-        <v>13.4</v>
+        <v>13.5</v>
       </c>
       <c r="F173" t="n">
-        <v>6863.27</v>
+        <v>51.4074</v>
       </c>
       <c r="G173" t="n">
-        <v>13.34333333333332</v>
+        <v>13.32833333333332</v>
       </c>
       <c r="H173" t="n">
+        <v>0</v>
+      </c>
+      <c r="I173" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4892,12 +5413,15 @@
         <v>13.4</v>
       </c>
       <c r="F174" t="n">
-        <v>3256.73</v>
+        <v>6863.27</v>
       </c>
       <c r="G174" t="n">
-        <v>13.35666666666665</v>
+        <v>13.34333333333332</v>
       </c>
       <c r="H174" t="n">
+        <v>0</v>
+      </c>
+      <c r="I174" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4906,24 +5430,27 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>13.3</v>
+        <v>13.4</v>
       </c>
       <c r="C175" t="n">
-        <v>13.3</v>
+        <v>13.4</v>
       </c>
       <c r="D175" t="n">
-        <v>13.3</v>
+        <v>13.4</v>
       </c>
       <c r="E175" t="n">
-        <v>13.1</v>
+        <v>13.4</v>
       </c>
       <c r="F175" t="n">
-        <v>173070.0249</v>
+        <v>3256.73</v>
       </c>
       <c r="G175" t="n">
-        <v>13.36999999999999</v>
+        <v>13.35666666666665</v>
       </c>
       <c r="H175" t="n">
+        <v>0</v>
+      </c>
+      <c r="I175" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4932,24 +5459,27 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>13.4</v>
+        <v>13.3</v>
       </c>
       <c r="C176" t="n">
-        <v>13.4</v>
+        <v>13.3</v>
       </c>
       <c r="D176" t="n">
-        <v>13.5</v>
+        <v>13.3</v>
       </c>
       <c r="E176" t="n">
-        <v>13.4</v>
+        <v>13.1</v>
       </c>
       <c r="F176" t="n">
-        <v>75594.62119999999</v>
+        <v>173070.0249</v>
       </c>
       <c r="G176" t="n">
-        <v>13.38333333333332</v>
+        <v>13.36999999999999</v>
       </c>
       <c r="H176" t="n">
+        <v>1</v>
+      </c>
+      <c r="I176" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4958,24 +5488,27 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>13.3</v>
+        <v>13.4</v>
       </c>
       <c r="C177" t="n">
-        <v>13.3</v>
+        <v>13.4</v>
       </c>
       <c r="D177" t="n">
-        <v>13.3</v>
+        <v>13.5</v>
       </c>
       <c r="E177" t="n">
-        <v>13.3</v>
+        <v>13.4</v>
       </c>
       <c r="F177" t="n">
-        <v>51.2781</v>
+        <v>75594.62119999999</v>
       </c>
       <c r="G177" t="n">
-        <v>13.39499999999999</v>
+        <v>13.38333333333332</v>
       </c>
       <c r="H177" t="n">
+        <v>1</v>
+      </c>
+      <c r="I177" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4987,21 +5520,24 @@
         <v>13.3</v>
       </c>
       <c r="C178" t="n">
-        <v>13.5</v>
+        <v>13.3</v>
       </c>
       <c r="D178" t="n">
-        <v>13.5</v>
+        <v>13.3</v>
       </c>
       <c r="E178" t="n">
         <v>13.3</v>
       </c>
       <c r="F178" t="n">
-        <v>62214.2659</v>
+        <v>51.2781</v>
       </c>
       <c r="G178" t="n">
-        <v>13.41166666666665</v>
+        <v>13.39499999999999</v>
       </c>
       <c r="H178" t="n">
+        <v>1</v>
+      </c>
+      <c r="I178" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5010,24 +5546,27 @@
         <v>177</v>
       </c>
       <c r="B179" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="C179" t="n">
         <v>13.5</v>
       </c>
-      <c r="C179" t="n">
-        <v>13.8</v>
-      </c>
       <c r="D179" t="n">
-        <v>13.8</v>
+        <v>13.5</v>
       </c>
       <c r="E179" t="n">
-        <v>13.5</v>
+        <v>13.3</v>
       </c>
       <c r="F179" t="n">
-        <v>368297.7938</v>
+        <v>62214.2659</v>
       </c>
       <c r="G179" t="n">
-        <v>13.42999999999998</v>
+        <v>13.41166666666665</v>
       </c>
       <c r="H179" t="n">
+        <v>1</v>
+      </c>
+      <c r="I179" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5036,24 +5575,27 @@
         <v>178</v>
       </c>
       <c r="B180" t="n">
-        <v>13.9</v>
+        <v>13.5</v>
       </c>
       <c r="C180" t="n">
-        <v>14</v>
+        <v>13.8</v>
       </c>
       <c r="D180" t="n">
-        <v>14</v>
+        <v>13.8</v>
       </c>
       <c r="E180" t="n">
-        <v>13.8</v>
+        <v>13.5</v>
       </c>
       <c r="F180" t="n">
-        <v>149243.5526</v>
+        <v>368297.7938</v>
       </c>
       <c r="G180" t="n">
-        <v>13.45499999999998</v>
+        <v>13.42999999999998</v>
       </c>
       <c r="H180" t="n">
+        <v>1</v>
+      </c>
+      <c r="I180" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5062,24 +5604,27 @@
         <v>179</v>
       </c>
       <c r="B181" t="n">
-        <v>14</v>
+        <v>13.9</v>
       </c>
       <c r="C181" t="n">
         <v>14</v>
       </c>
       <c r="D181" t="n">
-        <v>14.1</v>
+        <v>14</v>
       </c>
       <c r="E181" t="n">
-        <v>14</v>
+        <v>13.8</v>
       </c>
       <c r="F181" t="n">
-        <v>294104.067</v>
+        <v>149243.5526</v>
       </c>
       <c r="G181" t="n">
-        <v>13.48166666666665</v>
+        <v>13.45499999999998</v>
       </c>
       <c r="H181" t="n">
+        <v>0</v>
+      </c>
+      <c r="I181" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5091,21 +5636,24 @@
         <v>14</v>
       </c>
       <c r="C182" t="n">
-        <v>14.2</v>
+        <v>14</v>
       </c>
       <c r="D182" t="n">
-        <v>14.3</v>
+        <v>14.1</v>
       </c>
       <c r="E182" t="n">
         <v>14</v>
       </c>
       <c r="F182" t="n">
-        <v>385450.2265615385</v>
+        <v>294104.067</v>
       </c>
       <c r="G182" t="n">
-        <v>13.50999999999999</v>
+        <v>13.48166666666665</v>
       </c>
       <c r="H182" t="n">
+        <v>0</v>
+      </c>
+      <c r="I182" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5114,24 +5662,27 @@
         <v>181</v>
       </c>
       <c r="B183" t="n">
-        <v>14.3</v>
+        <v>14</v>
       </c>
       <c r="C183" t="n">
-        <v>14.3</v>
+        <v>14.2</v>
       </c>
       <c r="D183" t="n">
         <v>14.3</v>
       </c>
       <c r="E183" t="n">
-        <v>14.2</v>
+        <v>14</v>
       </c>
       <c r="F183" t="n">
-        <v>193175.0285</v>
+        <v>385450.2265615385</v>
       </c>
       <c r="G183" t="n">
-        <v>13.53499999999999</v>
+        <v>13.50999999999999</v>
       </c>
       <c r="H183" t="n">
+        <v>0</v>
+      </c>
+      <c r="I183" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5143,21 +5694,24 @@
         <v>14.3</v>
       </c>
       <c r="C184" t="n">
-        <v>14.1</v>
+        <v>14.3</v>
       </c>
       <c r="D184" t="n">
         <v>14.3</v>
       </c>
       <c r="E184" t="n">
-        <v>13.9</v>
+        <v>14.2</v>
       </c>
       <c r="F184" t="n">
-        <v>284920.8378</v>
+        <v>193175.0285</v>
       </c>
       <c r="G184" t="n">
-        <v>13.55666666666665</v>
+        <v>13.53499999999999</v>
       </c>
       <c r="H184" t="n">
+        <v>0</v>
+      </c>
+      <c r="I184" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5166,24 +5720,27 @@
         <v>183</v>
       </c>
       <c r="B185" t="n">
+        <v>14.3</v>
+      </c>
+      <c r="C185" t="n">
         <v>14.1</v>
       </c>
-      <c r="C185" t="n">
-        <v>13.8</v>
-      </c>
       <c r="D185" t="n">
-        <v>14.1</v>
+        <v>14.3</v>
       </c>
       <c r="E185" t="n">
-        <v>13.8</v>
+        <v>13.9</v>
       </c>
       <c r="F185" t="n">
-        <v>354348.264</v>
+        <v>284920.8378</v>
       </c>
       <c r="G185" t="n">
-        <v>13.57166666666665</v>
+        <v>13.55666666666665</v>
       </c>
       <c r="H185" t="n">
+        <v>0</v>
+      </c>
+      <c r="I185" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5192,24 +5749,27 @@
         <v>184</v>
       </c>
       <c r="B186" t="n">
-        <v>13.9</v>
+        <v>14.1</v>
       </c>
       <c r="C186" t="n">
-        <v>14.2</v>
+        <v>13.8</v>
       </c>
       <c r="D186" t="n">
-        <v>14.2</v>
+        <v>14.1</v>
       </c>
       <c r="E186" t="n">
-        <v>13.9</v>
+        <v>13.8</v>
       </c>
       <c r="F186" t="n">
-        <v>405970.82</v>
+        <v>354348.264</v>
       </c>
       <c r="G186" t="n">
-        <v>13.59333333333332</v>
+        <v>13.57166666666665</v>
       </c>
       <c r="H186" t="n">
+        <v>0</v>
+      </c>
+      <c r="I186" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5218,24 +5778,27 @@
         <v>185</v>
       </c>
       <c r="B187" t="n">
-        <v>14.1</v>
+        <v>13.9</v>
       </c>
       <c r="C187" t="n">
-        <v>14</v>
+        <v>14.2</v>
       </c>
       <c r="D187" t="n">
         <v>14.2</v>
       </c>
       <c r="E187" t="n">
-        <v>14</v>
+        <v>13.9</v>
       </c>
       <c r="F187" t="n">
-        <v>34452.8152</v>
+        <v>405970.82</v>
       </c>
       <c r="G187" t="n">
-        <v>13.61166666666665</v>
+        <v>13.59333333333332</v>
       </c>
       <c r="H187" t="n">
+        <v>0</v>
+      </c>
+      <c r="I187" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5250,18 +5813,21 @@
         <v>14</v>
       </c>
       <c r="D188" t="n">
-        <v>14.1</v>
+        <v>14.2</v>
       </c>
       <c r="E188" t="n">
         <v>14</v>
       </c>
       <c r="F188" t="n">
-        <v>55878.8711</v>
+        <v>34452.8152</v>
       </c>
       <c r="G188" t="n">
-        <v>13.62666666666665</v>
+        <v>13.61166666666665</v>
       </c>
       <c r="H188" t="n">
+        <v>0</v>
+      </c>
+      <c r="I188" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5270,24 +5836,27 @@
         <v>187</v>
       </c>
       <c r="B189" t="n">
-        <v>14</v>
+        <v>14.1</v>
       </c>
       <c r="C189" t="n">
         <v>14</v>
       </c>
       <c r="D189" t="n">
-        <v>14</v>
+        <v>14.1</v>
       </c>
       <c r="E189" t="n">
         <v>14</v>
       </c>
       <c r="F189" t="n">
-        <v>169714.2832</v>
+        <v>55878.8711</v>
       </c>
       <c r="G189" t="n">
-        <v>13.63333333333332</v>
+        <v>13.62666666666665</v>
       </c>
       <c r="H189" t="n">
+        <v>0</v>
+      </c>
+      <c r="I189" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5299,21 +5868,24 @@
         <v>14</v>
       </c>
       <c r="C190" t="n">
-        <v>13.8</v>
+        <v>14</v>
       </c>
       <c r="D190" t="n">
         <v>14</v>
       </c>
       <c r="E190" t="n">
-        <v>13.8</v>
+        <v>14</v>
       </c>
       <c r="F190" t="n">
-        <v>292348.8585</v>
+        <v>169714.2832</v>
       </c>
       <c r="G190" t="n">
-        <v>13.63666666666665</v>
+        <v>13.63333333333332</v>
       </c>
       <c r="H190" t="n">
+        <v>0</v>
+      </c>
+      <c r="I190" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5334,12 +5906,15 @@
         <v>13.8</v>
       </c>
       <c r="F191" t="n">
-        <v>227007.4411</v>
+        <v>292348.8585</v>
       </c>
       <c r="G191" t="n">
-        <v>13.63499999999999</v>
+        <v>13.63666666666665</v>
       </c>
       <c r="H191" t="n">
+        <v>0</v>
+      </c>
+      <c r="I191" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5348,24 +5923,27 @@
         <v>190</v>
       </c>
       <c r="B192" t="n">
-        <v>13.8</v>
+        <v>14</v>
       </c>
       <c r="C192" t="n">
         <v>13.8</v>
       </c>
       <c r="D192" t="n">
-        <v>13.8</v>
+        <v>14</v>
       </c>
       <c r="E192" t="n">
         <v>13.8</v>
       </c>
       <c r="F192" t="n">
-        <v>3116.27</v>
+        <v>227007.4411</v>
       </c>
       <c r="G192" t="n">
-        <v>13.63833333333332</v>
+        <v>13.63499999999999</v>
       </c>
       <c r="H192" t="n">
+        <v>0</v>
+      </c>
+      <c r="I192" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5386,12 +5964,15 @@
         <v>13.8</v>
       </c>
       <c r="F193" t="n">
-        <v>7252.56</v>
+        <v>3116.27</v>
       </c>
       <c r="G193" t="n">
-        <v>13.63999999999998</v>
+        <v>13.63833333333332</v>
       </c>
       <c r="H193" t="n">
+        <v>0</v>
+      </c>
+      <c r="I193" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5403,21 +5984,24 @@
         <v>13.8</v>
       </c>
       <c r="C194" t="n">
-        <v>13.7</v>
+        <v>13.8</v>
       </c>
       <c r="D194" t="n">
         <v>13.8</v>
       </c>
       <c r="E194" t="n">
-        <v>13.7</v>
+        <v>13.8</v>
       </c>
       <c r="F194" t="n">
-        <v>174676.8266</v>
+        <v>7252.56</v>
       </c>
       <c r="G194" t="n">
-        <v>13.63166666666665</v>
+        <v>13.63999999999998</v>
       </c>
       <c r="H194" t="n">
+        <v>0</v>
+      </c>
+      <c r="I194" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5426,24 +6010,27 @@
         <v>193</v>
       </c>
       <c r="B195" t="n">
-        <v>13.9</v>
+        <v>13.8</v>
       </c>
       <c r="C195" t="n">
-        <v>13.9</v>
+        <v>13.7</v>
       </c>
       <c r="D195" t="n">
-        <v>13.9</v>
+        <v>13.8</v>
       </c>
       <c r="E195" t="n">
-        <v>13.9</v>
+        <v>13.7</v>
       </c>
       <c r="F195" t="n">
-        <v>10</v>
+        <v>174676.8266</v>
       </c>
       <c r="G195" t="n">
-        <v>13.62666666666665</v>
+        <v>13.63166666666665</v>
       </c>
       <c r="H195" t="n">
+        <v>0</v>
+      </c>
+      <c r="I195" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5464,12 +6051,15 @@
         <v>13.9</v>
       </c>
       <c r="F196" t="n">
-        <v>28617.6978</v>
+        <v>10</v>
       </c>
       <c r="G196" t="n">
-        <v>13.62999999999998</v>
+        <v>13.62666666666665</v>
       </c>
       <c r="H196" t="n">
+        <v>0</v>
+      </c>
+      <c r="I196" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5490,12 +6080,15 @@
         <v>13.9</v>
       </c>
       <c r="F197" t="n">
-        <v>10190</v>
+        <v>28617.6978</v>
       </c>
       <c r="G197" t="n">
-        <v>13.63333333333331</v>
+        <v>13.62999999999998</v>
       </c>
       <c r="H197" t="n">
+        <v>0</v>
+      </c>
+      <c r="I197" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5504,7 +6097,7 @@
         <v>196</v>
       </c>
       <c r="B198" t="n">
-        <v>13.8</v>
+        <v>13.9</v>
       </c>
       <c r="C198" t="n">
         <v>13.9</v>
@@ -5513,15 +6106,18 @@
         <v>13.9</v>
       </c>
       <c r="E198" t="n">
-        <v>13.8</v>
+        <v>13.9</v>
       </c>
       <c r="F198" t="n">
-        <v>67961.6951</v>
+        <v>10190</v>
       </c>
       <c r="G198" t="n">
-        <v>13.63666666666665</v>
+        <v>13.63333333333331</v>
       </c>
       <c r="H198" t="n">
+        <v>0</v>
+      </c>
+      <c r="I198" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5530,7 +6126,7 @@
         <v>197</v>
       </c>
       <c r="B199" t="n">
-        <v>13.9</v>
+        <v>13.8</v>
       </c>
       <c r="C199" t="n">
         <v>13.9</v>
@@ -5539,15 +6135,18 @@
         <v>13.9</v>
       </c>
       <c r="E199" t="n">
-        <v>13.9</v>
+        <v>13.8</v>
       </c>
       <c r="F199" t="n">
-        <v>4999.6035</v>
+        <v>67961.6951</v>
       </c>
       <c r="G199" t="n">
-        <v>13.63833333333331</v>
+        <v>13.63666666666665</v>
       </c>
       <c r="H199" t="n">
+        <v>0</v>
+      </c>
+      <c r="I199" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5568,12 +6167,15 @@
         <v>13.9</v>
       </c>
       <c r="F200" t="n">
-        <v>31424.3567</v>
+        <v>4999.6035</v>
       </c>
       <c r="G200" t="n">
-        <v>13.64166666666664</v>
+        <v>13.63833333333331</v>
       </c>
       <c r="H200" t="n">
+        <v>0</v>
+      </c>
+      <c r="I200" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5585,21 +6187,24 @@
         <v>13.9</v>
       </c>
       <c r="C201" t="n">
-        <v>13.7</v>
+        <v>13.9</v>
       </c>
       <c r="D201" t="n">
         <v>13.9</v>
       </c>
       <c r="E201" t="n">
-        <v>13.7</v>
+        <v>13.9</v>
       </c>
       <c r="F201" t="n">
-        <v>71620.7884</v>
+        <v>31424.3567</v>
       </c>
       <c r="G201" t="n">
-        <v>13.64333333333331</v>
+        <v>13.64166666666664</v>
       </c>
       <c r="H201" t="n">
+        <v>0</v>
+      </c>
+      <c r="I201" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5608,24 +6213,27 @@
         <v>200</v>
       </c>
       <c r="B202" t="n">
-        <v>13.7</v>
+        <v>13.9</v>
       </c>
       <c r="C202" t="n">
         <v>13.7</v>
       </c>
       <c r="D202" t="n">
-        <v>13.7</v>
+        <v>13.9</v>
       </c>
       <c r="E202" t="n">
         <v>13.7</v>
       </c>
       <c r="F202" t="n">
-        <v>70503.8101</v>
+        <v>71620.7884</v>
       </c>
       <c r="G202" t="n">
-        <v>13.64499999999998</v>
+        <v>13.64333333333331</v>
       </c>
       <c r="H202" t="n">
+        <v>0</v>
+      </c>
+      <c r="I202" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5646,12 +6254,15 @@
         <v>13.7</v>
       </c>
       <c r="F203" t="n">
-        <v>1127.8715</v>
+        <v>70503.8101</v>
       </c>
       <c r="G203" t="n">
-        <v>13.64666666666665</v>
+        <v>13.64499999999998</v>
       </c>
       <c r="H203" t="n">
+        <v>0</v>
+      </c>
+      <c r="I203" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5660,24 +6271,27 @@
         <v>202</v>
       </c>
       <c r="B204" t="n">
-        <v>14</v>
+        <v>13.7</v>
       </c>
       <c r="C204" t="n">
-        <v>14</v>
+        <v>13.7</v>
       </c>
       <c r="D204" t="n">
-        <v>14</v>
+        <v>13.7</v>
       </c>
       <c r="E204" t="n">
-        <v>14</v>
+        <v>13.7</v>
       </c>
       <c r="F204" t="n">
-        <v>12</v>
+        <v>1127.8715</v>
       </c>
       <c r="G204" t="n">
-        <v>13.65666666666664</v>
+        <v>13.64666666666665</v>
       </c>
       <c r="H204" t="n">
+        <v>0</v>
+      </c>
+      <c r="I204" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5686,24 +6300,27 @@
         <v>203</v>
       </c>
       <c r="B205" t="n">
-        <v>13.8</v>
+        <v>14</v>
       </c>
       <c r="C205" t="n">
-        <v>13.8</v>
+        <v>14</v>
       </c>
       <c r="D205" t="n">
-        <v>13.8</v>
+        <v>14</v>
       </c>
       <c r="E205" t="n">
-        <v>13.8</v>
+        <v>14</v>
       </c>
       <c r="F205" t="n">
-        <v>3748.8837</v>
+        <v>12</v>
       </c>
       <c r="G205" t="n">
-        <v>13.66333333333331</v>
+        <v>13.65666666666664</v>
       </c>
       <c r="H205" t="n">
+        <v>0</v>
+      </c>
+      <c r="I205" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5724,12 +6341,15 @@
         <v>13.8</v>
       </c>
       <c r="F206" t="n">
-        <v>178766.3336</v>
+        <v>3748.8837</v>
       </c>
       <c r="G206" t="n">
-        <v>13.66999999999998</v>
+        <v>13.66333333333331</v>
       </c>
       <c r="H206" t="n">
+        <v>0</v>
+      </c>
+      <c r="I206" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5750,12 +6370,15 @@
         <v>13.8</v>
       </c>
       <c r="F207" t="n">
-        <v>37123.1428</v>
+        <v>178766.3336</v>
       </c>
       <c r="G207" t="n">
-        <v>13.67499999999998</v>
+        <v>13.66999999999998</v>
       </c>
       <c r="H207" t="n">
+        <v>0</v>
+      </c>
+      <c r="I207" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5764,24 +6387,27 @@
         <v>206</v>
       </c>
       <c r="B208" t="n">
-        <v>14</v>
+        <v>13.8</v>
       </c>
       <c r="C208" t="n">
-        <v>14</v>
+        <v>13.8</v>
       </c>
       <c r="D208" t="n">
-        <v>14</v>
+        <v>13.8</v>
       </c>
       <c r="E208" t="n">
-        <v>14</v>
+        <v>13.8</v>
       </c>
       <c r="F208" t="n">
-        <v>60</v>
+        <v>37123.1428</v>
       </c>
       <c r="G208" t="n">
-        <v>13.68333333333331</v>
+        <v>13.67499999999998</v>
       </c>
       <c r="H208" t="n">
+        <v>0</v>
+      </c>
+      <c r="I208" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5790,24 +6416,27 @@
         <v>207</v>
       </c>
       <c r="B209" t="n">
-        <v>13.9</v>
+        <v>14</v>
       </c>
       <c r="C209" t="n">
-        <v>13.9</v>
+        <v>14</v>
       </c>
       <c r="D209" t="n">
-        <v>13.9</v>
+        <v>14</v>
       </c>
       <c r="E209" t="n">
-        <v>13.9</v>
+        <v>14</v>
       </c>
       <c r="F209" t="n">
-        <v>178</v>
+        <v>60</v>
       </c>
       <c r="G209" t="n">
-        <v>13.68666666666664</v>
+        <v>13.68333333333331</v>
       </c>
       <c r="H209" t="n">
+        <v>0</v>
+      </c>
+      <c r="I209" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5828,12 +6457,15 @@
         <v>13.9</v>
       </c>
       <c r="F210" t="n">
-        <v>381</v>
+        <v>178</v>
       </c>
       <c r="G210" t="n">
-        <v>13.68999999999997</v>
+        <v>13.68666666666664</v>
       </c>
       <c r="H210" t="n">
+        <v>0</v>
+      </c>
+      <c r="I210" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5842,7 +6474,7 @@
         <v>209</v>
       </c>
       <c r="B211" t="n">
-        <v>13.8</v>
+        <v>13.9</v>
       </c>
       <c r="C211" t="n">
         <v>13.9</v>
@@ -5851,15 +6483,18 @@
         <v>13.9</v>
       </c>
       <c r="E211" t="n">
-        <v>13.8</v>
+        <v>13.9</v>
       </c>
       <c r="F211" t="n">
-        <v>152004.3884</v>
+        <v>381</v>
       </c>
       <c r="G211" t="n">
-        <v>13.69166666666664</v>
+        <v>13.68999999999997</v>
       </c>
       <c r="H211" t="n">
+        <v>0</v>
+      </c>
+      <c r="I211" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5868,7 +6503,7 @@
         <v>210</v>
       </c>
       <c r="B212" t="n">
-        <v>13.9</v>
+        <v>13.8</v>
       </c>
       <c r="C212" t="n">
         <v>13.9</v>
@@ -5877,15 +6512,18 @@
         <v>13.9</v>
       </c>
       <c r="E212" t="n">
-        <v>13.9</v>
+        <v>13.8</v>
       </c>
       <c r="F212" t="n">
-        <v>28514.7764</v>
+        <v>152004.3884</v>
       </c>
       <c r="G212" t="n">
-        <v>13.69499999999997</v>
+        <v>13.69166666666664</v>
       </c>
       <c r="H212" t="n">
+        <v>0</v>
+      </c>
+      <c r="I212" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5894,24 +6532,27 @@
         <v>211</v>
       </c>
       <c r="B213" t="n">
-        <v>14</v>
+        <v>13.9</v>
       </c>
       <c r="C213" t="n">
         <v>13.9</v>
       </c>
       <c r="D213" t="n">
-        <v>14</v>
+        <v>13.9</v>
       </c>
       <c r="E213" t="n">
         <v>13.9</v>
       </c>
       <c r="F213" t="n">
-        <v>11513</v>
+        <v>28514.7764</v>
       </c>
       <c r="G213" t="n">
-        <v>13.69999999999997</v>
+        <v>13.69499999999997</v>
       </c>
       <c r="H213" t="n">
+        <v>0</v>
+      </c>
+      <c r="I213" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5923,21 +6564,24 @@
         <v>14</v>
       </c>
       <c r="C214" t="n">
-        <v>14</v>
+        <v>13.9</v>
       </c>
       <c r="D214" t="n">
         <v>14</v>
       </c>
       <c r="E214" t="n">
-        <v>14</v>
+        <v>13.9</v>
       </c>
       <c r="F214" t="n">
-        <v>24764.8213</v>
+        <v>11513</v>
       </c>
       <c r="G214" t="n">
-        <v>13.70999999999997</v>
+        <v>13.69999999999997</v>
       </c>
       <c r="H214" t="n">
+        <v>0</v>
+      </c>
+      <c r="I214" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5946,24 +6590,27 @@
         <v>213</v>
       </c>
       <c r="B215" t="n">
-        <v>13.9</v>
+        <v>14</v>
       </c>
       <c r="C215" t="n">
-        <v>13.9</v>
+        <v>14</v>
       </c>
       <c r="D215" t="n">
-        <v>13.9</v>
+        <v>14</v>
       </c>
       <c r="E215" t="n">
-        <v>13.9</v>
+        <v>14</v>
       </c>
       <c r="F215" t="n">
-        <v>8525</v>
+        <v>24764.8213</v>
       </c>
       <c r="G215" t="n">
-        <v>13.71499999999997</v>
+        <v>13.70999999999997</v>
       </c>
       <c r="H215" t="n">
+        <v>0</v>
+      </c>
+      <c r="I215" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5972,24 +6619,27 @@
         <v>214</v>
       </c>
       <c r="B216" t="n">
-        <v>13.8</v>
+        <v>13.9</v>
       </c>
       <c r="C216" t="n">
-        <v>13.8</v>
+        <v>13.9</v>
       </c>
       <c r="D216" t="n">
-        <v>13.8</v>
+        <v>13.9</v>
       </c>
       <c r="E216" t="n">
-        <v>13.8</v>
+        <v>13.9</v>
       </c>
       <c r="F216" t="n">
-        <v>2225.2289</v>
+        <v>8525</v>
       </c>
       <c r="G216" t="n">
-        <v>13.72166666666664</v>
+        <v>13.71499999999997</v>
       </c>
       <c r="H216" t="n">
+        <v>0</v>
+      </c>
+      <c r="I216" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6001,21 +6651,24 @@
         <v>13.8</v>
       </c>
       <c r="C217" t="n">
-        <v>13.7</v>
+        <v>13.8</v>
       </c>
       <c r="D217" t="n">
         <v>13.8</v>
       </c>
       <c r="E217" t="n">
-        <v>13.7</v>
+        <v>13.8</v>
       </c>
       <c r="F217" t="n">
-        <v>75245.67999999999</v>
+        <v>2225.2289</v>
       </c>
       <c r="G217" t="n">
-        <v>13.72666666666664</v>
+        <v>13.72166666666664</v>
       </c>
       <c r="H217" t="n">
+        <v>0</v>
+      </c>
+      <c r="I217" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6036,12 +6689,15 @@
         <v>13.7</v>
       </c>
       <c r="F218" t="n">
-        <v>49831.66</v>
+        <v>75245.67999999999</v>
       </c>
       <c r="G218" t="n">
-        <v>13.72999999999997</v>
+        <v>13.72666666666664</v>
       </c>
       <c r="H218" t="n">
+        <v>0</v>
+      </c>
+      <c r="I218" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6053,21 +6709,24 @@
         <v>13.8</v>
       </c>
       <c r="C219" t="n">
-        <v>13.8</v>
+        <v>13.7</v>
       </c>
       <c r="D219" t="n">
         <v>13.8</v>
       </c>
       <c r="E219" t="n">
-        <v>13.8</v>
+        <v>13.7</v>
       </c>
       <c r="F219" t="n">
-        <v>9163.115900000001</v>
+        <v>49831.66</v>
       </c>
       <c r="G219" t="n">
-        <v>13.73833333333331</v>
+        <v>13.72999999999997</v>
       </c>
       <c r="H219" t="n">
+        <v>0</v>
+      </c>
+      <c r="I219" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6076,24 +6735,27 @@
         <v>218</v>
       </c>
       <c r="B220" t="n">
-        <v>13.7</v>
+        <v>13.8</v>
       </c>
       <c r="C220" t="n">
-        <v>13.6</v>
+        <v>13.8</v>
       </c>
       <c r="D220" t="n">
-        <v>13.7</v>
+        <v>13.8</v>
       </c>
       <c r="E220" t="n">
-        <v>13.6</v>
+        <v>13.8</v>
       </c>
       <c r="F220" t="n">
-        <v>20171.85</v>
+        <v>9163.115900000001</v>
       </c>
       <c r="G220" t="n">
-        <v>13.74333333333331</v>
+        <v>13.73833333333331</v>
       </c>
       <c r="H220" t="n">
+        <v>0</v>
+      </c>
+      <c r="I220" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6102,24 +6764,27 @@
         <v>219</v>
       </c>
       <c r="B221" t="n">
-        <v>13.6</v>
+        <v>13.7</v>
       </c>
       <c r="C221" t="n">
         <v>13.6</v>
       </c>
       <c r="D221" t="n">
-        <v>13.6</v>
+        <v>13.7</v>
       </c>
       <c r="E221" t="n">
         <v>13.6</v>
       </c>
       <c r="F221" t="n">
-        <v>13149.1615</v>
+        <v>20171.85</v>
       </c>
       <c r="G221" t="n">
-        <v>13.74833333333331</v>
+        <v>13.74333333333331</v>
       </c>
       <c r="H221" t="n">
+        <v>0</v>
+      </c>
+      <c r="I221" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6128,24 +6793,27 @@
         <v>220</v>
       </c>
       <c r="B222" t="n">
-        <v>13.8</v>
+        <v>13.6</v>
       </c>
       <c r="C222" t="n">
-        <v>13.9</v>
+        <v>13.6</v>
       </c>
       <c r="D222" t="n">
-        <v>13.9</v>
+        <v>13.6</v>
       </c>
       <c r="E222" t="n">
-        <v>13.8</v>
+        <v>13.6</v>
       </c>
       <c r="F222" t="n">
-        <v>11000</v>
+        <v>13149.1615</v>
       </c>
       <c r="G222" t="n">
-        <v>13.75499999999998</v>
+        <v>13.74833333333331</v>
       </c>
       <c r="H222" t="n">
+        <v>0</v>
+      </c>
+      <c r="I222" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6157,21 +6825,24 @@
         <v>13.8</v>
       </c>
       <c r="C223" t="n">
-        <v>13.8</v>
+        <v>13.9</v>
       </c>
       <c r="D223" t="n">
-        <v>13.8</v>
+        <v>13.9</v>
       </c>
       <c r="E223" t="n">
         <v>13.8</v>
       </c>
       <c r="F223" t="n">
-        <v>5500</v>
+        <v>11000</v>
       </c>
       <c r="G223" t="n">
-        <v>13.75999999999997</v>
+        <v>13.75499999999998</v>
       </c>
       <c r="H223" t="n">
+        <v>0</v>
+      </c>
+      <c r="I223" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6192,12 +6863,15 @@
         <v>13.8</v>
       </c>
       <c r="F224" t="n">
-        <v>8250</v>
+        <v>5500</v>
       </c>
       <c r="G224" t="n">
-        <v>13.76666666666664</v>
+        <v>13.75999999999997</v>
       </c>
       <c r="H224" t="n">
+        <v>0</v>
+      </c>
+      <c r="I224" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6218,12 +6892,15 @@
         <v>13.8</v>
       </c>
       <c r="F225" t="n">
-        <v>14309.7101</v>
+        <v>8250</v>
       </c>
       <c r="G225" t="n">
-        <v>13.77333333333331</v>
+        <v>13.76666666666664</v>
       </c>
       <c r="H225" t="n">
+        <v>0</v>
+      </c>
+      <c r="I225" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6244,12 +6921,15 @@
         <v>13.8</v>
       </c>
       <c r="F226" t="n">
-        <v>5719.2411</v>
+        <v>14309.7101</v>
       </c>
       <c r="G226" t="n">
-        <v>13.77666666666664</v>
+        <v>13.77333333333331</v>
       </c>
       <c r="H226" t="n">
+        <v>0</v>
+      </c>
+      <c r="I226" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6270,12 +6950,15 @@
         <v>13.8</v>
       </c>
       <c r="F227" t="n">
-        <v>59224.8893</v>
+        <v>5719.2411</v>
       </c>
       <c r="G227" t="n">
-        <v>13.78499999999997</v>
+        <v>13.77666666666664</v>
       </c>
       <c r="H227" t="n">
+        <v>0</v>
+      </c>
+      <c r="I227" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6296,12 +6979,15 @@
         <v>13.8</v>
       </c>
       <c r="F228" t="n">
-        <v>33</v>
+        <v>59224.8893</v>
       </c>
       <c r="G228" t="n">
-        <v>13.79333333333331</v>
+        <v>13.78499999999997</v>
       </c>
       <c r="H228" t="n">
+        <v>0</v>
+      </c>
+      <c r="I228" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6310,24 +6996,27 @@
         <v>227</v>
       </c>
       <c r="B229" t="n">
-        <v>13.6</v>
+        <v>13.8</v>
       </c>
       <c r="C229" t="n">
-        <v>13.6</v>
+        <v>13.8</v>
       </c>
       <c r="D229" t="n">
-        <v>13.6</v>
+        <v>13.8</v>
       </c>
       <c r="E229" t="n">
-        <v>13.6</v>
+        <v>13.8</v>
       </c>
       <c r="F229" t="n">
-        <v>13611.0383</v>
+        <v>33</v>
       </c>
       <c r="G229" t="n">
-        <v>13.79499999999998</v>
+        <v>13.79333333333331</v>
       </c>
       <c r="H229" t="n">
+        <v>0</v>
+      </c>
+      <c r="I229" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6336,24 +7025,27 @@
         <v>228</v>
       </c>
       <c r="B230" t="n">
-        <v>13.7</v>
+        <v>13.6</v>
       </c>
       <c r="C230" t="n">
-        <v>13.7</v>
+        <v>13.6</v>
       </c>
       <c r="D230" t="n">
-        <v>13.7</v>
+        <v>13.6</v>
       </c>
       <c r="E230" t="n">
-        <v>13.7</v>
+        <v>13.6</v>
       </c>
       <c r="F230" t="n">
-        <v>29933.3576</v>
+        <v>13611.0383</v>
       </c>
       <c r="G230" t="n">
-        <v>13.79999999999998</v>
+        <v>13.79499999999998</v>
       </c>
       <c r="H230" t="n">
+        <v>0</v>
+      </c>
+      <c r="I230" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6362,24 +7054,27 @@
         <v>229</v>
       </c>
       <c r="B231" t="n">
-        <v>13.6</v>
+        <v>13.7</v>
       </c>
       <c r="C231" t="n">
-        <v>13.6</v>
+        <v>13.7</v>
       </c>
       <c r="D231" t="n">
-        <v>13.6</v>
+        <v>13.7</v>
       </c>
       <c r="E231" t="n">
-        <v>13.6</v>
+        <v>13.7</v>
       </c>
       <c r="F231" t="n">
-        <v>37937.7047</v>
+        <v>29933.3576</v>
       </c>
       <c r="G231" t="n">
-        <v>13.80333333333331</v>
+        <v>13.79999999999998</v>
       </c>
       <c r="H231" t="n">
+        <v>0</v>
+      </c>
+      <c r="I231" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6388,24 +7083,27 @@
         <v>230</v>
       </c>
       <c r="B232" t="n">
-        <v>13.7</v>
+        <v>13.6</v>
       </c>
       <c r="C232" t="n">
-        <v>13.7</v>
+        <v>13.6</v>
       </c>
       <c r="D232" t="n">
-        <v>13.7</v>
+        <v>13.6</v>
       </c>
       <c r="E232" t="n">
-        <v>13.7</v>
+        <v>13.6</v>
       </c>
       <c r="F232" t="n">
-        <v>12</v>
+        <v>37937.7047</v>
       </c>
       <c r="G232" t="n">
-        <v>13.80666666666664</v>
+        <v>13.80333333333331</v>
       </c>
       <c r="H232" t="n">
+        <v>0</v>
+      </c>
+      <c r="I232" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6414,24 +7112,27 @@
         <v>231</v>
       </c>
       <c r="B233" t="n">
-        <v>13.6</v>
+        <v>13.7</v>
       </c>
       <c r="C233" t="n">
-        <v>13.2</v>
+        <v>13.7</v>
       </c>
       <c r="D233" t="n">
-        <v>13.6</v>
+        <v>13.7</v>
       </c>
       <c r="E233" t="n">
-        <v>13.2</v>
+        <v>13.7</v>
       </c>
       <c r="F233" t="n">
-        <v>488033.2873</v>
+        <v>12</v>
       </c>
       <c r="G233" t="n">
-        <v>13.80333333333331</v>
+        <v>13.80666666666664</v>
       </c>
       <c r="H233" t="n">
+        <v>0</v>
+      </c>
+      <c r="I233" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6440,24 +7141,27 @@
         <v>232</v>
       </c>
       <c r="B234" t="n">
-        <v>13.3</v>
+        <v>13.6</v>
       </c>
       <c r="C234" t="n">
-        <v>13.5</v>
+        <v>13.2</v>
       </c>
       <c r="D234" t="n">
-        <v>13.5</v>
+        <v>13.6</v>
       </c>
       <c r="E234" t="n">
-        <v>13.3</v>
+        <v>13.2</v>
       </c>
       <c r="F234" t="n">
-        <v>34767.155</v>
+        <v>488033.2873</v>
       </c>
       <c r="G234" t="n">
-        <v>13.80499999999998</v>
+        <v>13.80333333333331</v>
       </c>
       <c r="H234" t="n">
+        <v>0</v>
+      </c>
+      <c r="I234" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6466,24 +7170,27 @@
         <v>233</v>
       </c>
       <c r="B235" t="n">
-        <v>13.6</v>
+        <v>13.3</v>
       </c>
       <c r="C235" t="n">
-        <v>13.6</v>
+        <v>13.5</v>
       </c>
       <c r="D235" t="n">
-        <v>13.6</v>
+        <v>13.5</v>
       </c>
       <c r="E235" t="n">
-        <v>13.6</v>
+        <v>13.3</v>
       </c>
       <c r="F235" t="n">
-        <v>12</v>
+        <v>34767.155</v>
       </c>
       <c r="G235" t="n">
-        <v>13.80999999999998</v>
+        <v>13.80499999999998</v>
       </c>
       <c r="H235" t="n">
+        <v>0</v>
+      </c>
+      <c r="I235" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6492,7 +7199,7 @@
         <v>234</v>
       </c>
       <c r="B236" t="n">
-        <v>13.5</v>
+        <v>13.6</v>
       </c>
       <c r="C236" t="n">
         <v>13.6</v>
@@ -6501,15 +7208,18 @@
         <v>13.6</v>
       </c>
       <c r="E236" t="n">
-        <v>13.5</v>
+        <v>13.6</v>
       </c>
       <c r="F236" t="n">
-        <v>126686.6342</v>
+        <v>12</v>
       </c>
       <c r="G236" t="n">
-        <v>13.81333333333331</v>
+        <v>13.80999999999998</v>
       </c>
       <c r="H236" t="n">
+        <v>0</v>
+      </c>
+      <c r="I236" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6518,24 +7228,27 @@
         <v>235</v>
       </c>
       <c r="B237" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="C237" t="n">
         <v>13.6</v>
       </c>
-      <c r="C237" t="n">
-        <v>13.8</v>
-      </c>
       <c r="D237" t="n">
-        <v>13.8</v>
+        <v>13.6</v>
       </c>
       <c r="E237" t="n">
-        <v>13.6</v>
+        <v>13.5</v>
       </c>
       <c r="F237" t="n">
-        <v>374544.4823</v>
+        <v>126686.6342</v>
       </c>
       <c r="G237" t="n">
-        <v>13.82166666666665</v>
+        <v>13.81333333333331</v>
       </c>
       <c r="H237" t="n">
+        <v>0</v>
+      </c>
+      <c r="I237" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6544,24 +7257,27 @@
         <v>236</v>
       </c>
       <c r="B238" t="n">
-        <v>13.7</v>
+        <v>13.6</v>
       </c>
       <c r="C238" t="n">
-        <v>13.7</v>
+        <v>13.8</v>
       </c>
       <c r="D238" t="n">
-        <v>13.7</v>
+        <v>13.8</v>
       </c>
       <c r="E238" t="n">
-        <v>13.7</v>
+        <v>13.6</v>
       </c>
       <c r="F238" t="n">
-        <v>21011.4617</v>
+        <v>374544.4823</v>
       </c>
       <c r="G238" t="n">
-        <v>13.82499999999998</v>
+        <v>13.82166666666665</v>
       </c>
       <c r="H238" t="n">
+        <v>0</v>
+      </c>
+      <c r="I238" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6570,24 +7286,27 @@
         <v>237</v>
       </c>
       <c r="B239" t="n">
-        <v>13.8</v>
+        <v>13.7</v>
       </c>
       <c r="C239" t="n">
-        <v>13.8</v>
+        <v>13.7</v>
       </c>
       <c r="D239" t="n">
-        <v>13.8</v>
+        <v>13.7</v>
       </c>
       <c r="E239" t="n">
         <v>13.7</v>
       </c>
       <c r="F239" t="n">
-        <v>46131.792</v>
+        <v>21011.4617</v>
       </c>
       <c r="G239" t="n">
         <v>13.82499999999998</v>
       </c>
       <c r="H239" t="n">
+        <v>0</v>
+      </c>
+      <c r="I239" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6608,12 +7327,15 @@
         <v>13.7</v>
       </c>
       <c r="F240" t="n">
-        <v>14795.8547</v>
+        <v>46131.792</v>
       </c>
       <c r="G240" t="n">
-        <v>13.82166666666665</v>
+        <v>13.82499999999998</v>
       </c>
       <c r="H240" t="n">
+        <v>0</v>
+      </c>
+      <c r="I240" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6622,24 +7344,27 @@
         <v>239</v>
       </c>
       <c r="B241" t="n">
-        <v>13.6</v>
+        <v>13.8</v>
       </c>
       <c r="C241" t="n">
-        <v>13.6</v>
+        <v>13.8</v>
       </c>
       <c r="D241" t="n">
-        <v>13.6</v>
+        <v>13.8</v>
       </c>
       <c r="E241" t="n">
-        <v>13.6</v>
+        <v>13.7</v>
       </c>
       <c r="F241" t="n">
-        <v>25527.8818</v>
+        <v>14795.8547</v>
       </c>
       <c r="G241" t="n">
-        <v>13.81499999999998</v>
+        <v>13.82166666666665</v>
       </c>
       <c r="H241" t="n">
+        <v>0</v>
+      </c>
+      <c r="I241" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6648,24 +7373,27 @@
         <v>240</v>
       </c>
       <c r="B242" t="n">
-        <v>13.7</v>
+        <v>13.6</v>
       </c>
       <c r="C242" t="n">
-        <v>13.7</v>
+        <v>13.6</v>
       </c>
       <c r="D242" t="n">
-        <v>13.7</v>
+        <v>13.6</v>
       </c>
       <c r="E242" t="n">
-        <v>13.7</v>
+        <v>13.6</v>
       </c>
       <c r="F242" t="n">
-        <v>11270.59</v>
+        <v>25527.8818</v>
       </c>
       <c r="G242" t="n">
-        <v>13.80666666666665</v>
+        <v>13.81499999999998</v>
       </c>
       <c r="H242" t="n">
+        <v>0</v>
+      </c>
+      <c r="I242" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6686,12 +7414,15 @@
         <v>13.7</v>
       </c>
       <c r="F243" t="n">
-        <v>3854.3684</v>
+        <v>11270.59</v>
       </c>
       <c r="G243" t="n">
-        <v>13.79666666666665</v>
+        <v>13.80666666666665</v>
       </c>
       <c r="H243" t="n">
+        <v>0</v>
+      </c>
+      <c r="I243" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6703,21 +7434,24 @@
         <v>13.7</v>
       </c>
       <c r="C244" t="n">
-        <v>13.8</v>
+        <v>13.7</v>
       </c>
       <c r="D244" t="n">
-        <v>13.8</v>
+        <v>13.7</v>
       </c>
       <c r="E244" t="n">
         <v>13.7</v>
       </c>
       <c r="F244" t="n">
-        <v>16593.3227</v>
+        <v>3854.3684</v>
       </c>
       <c r="G244" t="n">
-        <v>13.79166666666665</v>
+        <v>13.79666666666665</v>
       </c>
       <c r="H244" t="n">
+        <v>0</v>
+      </c>
+      <c r="I244" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6729,21 +7463,24 @@
         <v>13.7</v>
       </c>
       <c r="C245" t="n">
-        <v>13.7</v>
+        <v>13.8</v>
       </c>
       <c r="D245" t="n">
-        <v>13.7</v>
+        <v>13.8</v>
       </c>
       <c r="E245" t="n">
         <v>13.7</v>
       </c>
       <c r="F245" t="n">
-        <v>19281.4688</v>
+        <v>16593.3227</v>
       </c>
       <c r="G245" t="n">
-        <v>13.78999999999998</v>
+        <v>13.79166666666665</v>
       </c>
       <c r="H245" t="n">
+        <v>0</v>
+      </c>
+      <c r="I245" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6761,15 +7498,18 @@
         <v>13.7</v>
       </c>
       <c r="E246" t="n">
-        <v>13.6</v>
+        <v>13.7</v>
       </c>
       <c r="F246" t="n">
-        <v>84163.9552</v>
+        <v>19281.4688</v>
       </c>
       <c r="G246" t="n">
-        <v>13.78166666666665</v>
+        <v>13.78999999999998</v>
       </c>
       <c r="H246" t="n">
+        <v>0</v>
+      </c>
+      <c r="I246" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6778,24 +7518,27 @@
         <v>245</v>
       </c>
       <c r="B247" t="n">
-        <v>13.6</v>
+        <v>13.7</v>
       </c>
       <c r="C247" t="n">
-        <v>13.6</v>
+        <v>13.7</v>
       </c>
       <c r="D247" t="n">
-        <v>13.6</v>
+        <v>13.7</v>
       </c>
       <c r="E247" t="n">
         <v>13.6</v>
       </c>
       <c r="F247" t="n">
-        <v>53878.9198</v>
+        <v>84163.9552</v>
       </c>
       <c r="G247" t="n">
-        <v>13.77499999999998</v>
+        <v>13.78166666666665</v>
       </c>
       <c r="H247" t="n">
+        <v>0</v>
+      </c>
+      <c r="I247" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6816,12 +7559,15 @@
         <v>13.6</v>
       </c>
       <c r="F248" t="n">
-        <v>47557.5405</v>
+        <v>53878.9198</v>
       </c>
       <c r="G248" t="n">
-        <v>13.76833333333332</v>
+        <v>13.77499999999998</v>
       </c>
       <c r="H248" t="n">
+        <v>0</v>
+      </c>
+      <c r="I248" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6842,12 +7588,15 @@
         <v>13.6</v>
       </c>
       <c r="F249" t="n">
-        <v>20885.5401</v>
+        <v>47557.5405</v>
       </c>
       <c r="G249" t="n">
-        <v>13.76166666666665</v>
+        <v>13.76833333333332</v>
       </c>
       <c r="H249" t="n">
+        <v>0</v>
+      </c>
+      <c r="I249" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6868,12 +7617,15 @@
         <v>13.6</v>
       </c>
       <c r="F250" t="n">
-        <v>22890.7695</v>
+        <v>20885.5401</v>
       </c>
       <c r="G250" t="n">
-        <v>13.75833333333332</v>
+        <v>13.76166666666665</v>
       </c>
       <c r="H250" t="n">
+        <v>0</v>
+      </c>
+      <c r="I250" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6894,12 +7646,15 @@
         <v>13.6</v>
       </c>
       <c r="F251" t="n">
-        <v>21760.5336</v>
+        <v>22890.7695</v>
       </c>
       <c r="G251" t="n">
-        <v>13.75499999999999</v>
+        <v>13.75833333333332</v>
       </c>
       <c r="H251" t="n">
+        <v>0</v>
+      </c>
+      <c r="I251" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6911,541 +7666,24 @@
         <v>13.6</v>
       </c>
       <c r="C252" t="n">
-        <v>13.5</v>
+        <v>13.6</v>
       </c>
       <c r="D252" t="n">
         <v>13.6</v>
       </c>
       <c r="E252" t="n">
-        <v>13.5</v>
+        <v>13.6</v>
       </c>
       <c r="F252" t="n">
-        <v>12475.5835</v>
+        <v>21760.5336</v>
       </c>
       <c r="G252" t="n">
-        <v>13.74999999999999</v>
+        <v>13.75499999999999</v>
       </c>
       <c r="H252" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="253">
-      <c r="A253" s="1" t="n">
-        <v>251</v>
-      </c>
-      <c r="B253" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="C253" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="D253" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="E253" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="F253" t="n">
-        <v>105962.592</v>
-      </c>
-      <c r="G253" t="n">
-        <v>13.74499999999999</v>
-      </c>
-      <c r="H253" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="254">
-      <c r="A254" s="1" t="n">
-        <v>252</v>
-      </c>
-      <c r="B254" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="C254" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="D254" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="E254" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="F254" t="n">
-        <v>28940.7838</v>
-      </c>
-      <c r="G254" t="n">
-        <v>13.74333333333332</v>
-      </c>
-      <c r="H254" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="255">
-      <c r="A255" s="1" t="n">
-        <v>253</v>
-      </c>
-      <c r="B255" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="C255" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="D255" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="E255" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="F255" t="n">
-        <v>34937.8676</v>
-      </c>
-      <c r="G255" t="n">
-        <v>13.73833333333332</v>
-      </c>
-      <c r="H255" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="256">
-      <c r="A256" s="1" t="n">
-        <v>254</v>
-      </c>
-      <c r="B256" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="C256" t="n">
-        <v>13.7</v>
-      </c>
-      <c r="D256" t="n">
-        <v>13.7</v>
-      </c>
-      <c r="E256" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="F256" t="n">
-        <v>23</v>
-      </c>
-      <c r="G256" t="n">
-        <v>13.73499999999999</v>
-      </c>
-      <c r="H256" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="257">
-      <c r="A257" s="1" t="n">
-        <v>255</v>
-      </c>
-      <c r="B257" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="C257" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="D257" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="E257" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="F257" t="n">
-        <v>10000</v>
-      </c>
-      <c r="G257" t="n">
-        <v>13.72999999999999</v>
-      </c>
-      <c r="H257" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="258">
-      <c r="A258" s="1" t="n">
-        <v>256</v>
-      </c>
-      <c r="B258" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="C258" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="D258" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="E258" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="F258" t="n">
-        <v>269950.1064</v>
-      </c>
-      <c r="G258" t="n">
-        <v>13.72333333333332</v>
-      </c>
-      <c r="H258" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="259">
-      <c r="A259" s="1" t="n">
-        <v>257</v>
-      </c>
-      <c r="B259" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="C259" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="D259" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="E259" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="F259" t="n">
-        <v>120020</v>
-      </c>
-      <c r="G259" t="n">
-        <v>13.71833333333332</v>
-      </c>
-      <c r="H259" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="260">
-      <c r="A260" s="1" t="n">
-        <v>258</v>
-      </c>
-      <c r="B260" t="n">
-        <v>13.4</v>
-      </c>
-      <c r="C260" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="D260" t="n">
-        <v>13.4</v>
-      </c>
-      <c r="E260" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="F260" t="n">
-        <v>149942.1065</v>
-      </c>
-      <c r="G260" t="n">
-        <v>13.70833333333332</v>
-      </c>
-      <c r="H260" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="261">
-      <c r="A261" s="1" t="n">
-        <v>259</v>
-      </c>
-      <c r="B261" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="C261" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="D261" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="E261" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="F261" t="n">
-        <v>41911.3774</v>
-      </c>
-      <c r="G261" t="n">
-        <v>13.70166666666666</v>
-      </c>
-      <c r="H261" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="262">
-      <c r="A262" s="1" t="n">
-        <v>260</v>
-      </c>
-      <c r="B262" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="C262" t="n">
-        <v>13.7</v>
-      </c>
-      <c r="D262" t="n">
-        <v>13.7</v>
-      </c>
-      <c r="E262" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="F262" t="n">
-        <v>17261.6653</v>
-      </c>
-      <c r="G262" t="n">
-        <v>13.70166666666666</v>
-      </c>
-      <c r="H262" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="263">
-      <c r="A263" s="1" t="n">
-        <v>261</v>
-      </c>
-      <c r="B263" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="C263" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="D263" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="E263" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="F263" t="n">
-        <v>8630</v>
-      </c>
-      <c r="G263" t="n">
-        <v>13.69833333333332</v>
-      </c>
-      <c r="H263" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="264">
-      <c r="A264" s="1" t="n">
-        <v>262</v>
-      </c>
-      <c r="B264" t="n">
-        <v>13.4</v>
-      </c>
-      <c r="C264" t="n">
-        <v>13.4</v>
-      </c>
-      <c r="D264" t="n">
-        <v>13.4</v>
-      </c>
-      <c r="E264" t="n">
-        <v>13.4</v>
-      </c>
-      <c r="F264" t="n">
-        <v>3543.8292</v>
-      </c>
-      <c r="G264" t="n">
-        <v>13.68833333333332</v>
-      </c>
-      <c r="H264" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="265">
-      <c r="A265" s="1" t="n">
-        <v>263</v>
-      </c>
-      <c r="B265" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="C265" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="D265" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="E265" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="F265" t="n">
-        <v>12</v>
-      </c>
-      <c r="G265" t="n">
-        <v>13.68333333333332</v>
-      </c>
-      <c r="H265" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="266">
-      <c r="A266" s="1" t="n">
-        <v>264</v>
-      </c>
-      <c r="B266" t="n">
-        <v>13.4</v>
-      </c>
-      <c r="C266" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="D266" t="n">
-        <v>13.4</v>
-      </c>
-      <c r="E266" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="F266" t="n">
-        <v>11965.2463</v>
-      </c>
-      <c r="G266" t="n">
-        <v>13.67499999999999</v>
-      </c>
-      <c r="H266" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="267">
-      <c r="A267" s="1" t="n">
-        <v>265</v>
-      </c>
-      <c r="B267" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="C267" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="D267" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="E267" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="F267" t="n">
-        <v>12</v>
-      </c>
-      <c r="G267" t="n">
-        <v>13.66999999999999</v>
-      </c>
-      <c r="H267" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="268">
-      <c r="A268" s="1" t="n">
-        <v>266</v>
-      </c>
-      <c r="B268" t="n">
-        <v>13.4</v>
-      </c>
-      <c r="C268" t="n">
-        <v>13.4</v>
-      </c>
-      <c r="D268" t="n">
-        <v>13.4</v>
-      </c>
-      <c r="E268" t="n">
-        <v>13.4</v>
-      </c>
-      <c r="F268" t="n">
-        <v>2582.388059701493</v>
-      </c>
-      <c r="G268" t="n">
-        <v>13.65999999999999</v>
-      </c>
-      <c r="H268" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="269">
-      <c r="A269" s="1" t="n">
-        <v>267</v>
-      </c>
-      <c r="B269" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="C269" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="D269" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="E269" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="F269" t="n">
-        <v>37721.0853</v>
-      </c>
-      <c r="G269" t="n">
-        <v>13.64999999999999</v>
-      </c>
-      <c r="H269" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="270">
-      <c r="A270" s="1" t="n">
-        <v>268</v>
-      </c>
-      <c r="B270" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="C270" t="n">
-        <v>13.2</v>
-      </c>
-      <c r="D270" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="E270" t="n">
-        <v>13.2</v>
-      </c>
-      <c r="F270" t="n">
-        <v>120962.4959</v>
-      </c>
-      <c r="G270" t="n">
-        <v>13.63833333333332</v>
-      </c>
-      <c r="H270" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="271">
-      <c r="A271" s="1" t="n">
-        <v>269</v>
-      </c>
-      <c r="B271" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="C271" t="n">
-        <v>13.4</v>
-      </c>
-      <c r="D271" t="n">
-        <v>13.4</v>
-      </c>
-      <c r="E271" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="F271" t="n">
-        <v>15262.7744</v>
-      </c>
-      <c r="G271" t="n">
-        <v>13.62999999999999</v>
-      </c>
-      <c r="H271" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="272">
-      <c r="A272" s="1" t="n">
-        <v>270</v>
-      </c>
-      <c r="B272" t="n">
-        <v>13.4</v>
-      </c>
-      <c r="C272" t="n">
-        <v>13.4</v>
-      </c>
-      <c r="D272" t="n">
-        <v>13.4</v>
-      </c>
-      <c r="E272" t="n">
-        <v>13.4</v>
-      </c>
-      <c r="F272" t="n">
-        <v>30513.2331</v>
-      </c>
-      <c r="G272" t="n">
-        <v>13.62166666666666</v>
-      </c>
-      <c r="H272" t="n">
+      <c r="I252" t="n">
         <v>0</v>
       </c>
     </row>
